--- a/vs/scattered erasure by key.xlsx
+++ b/vs/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.904459</v>
+        <v>0.851963</v>
       </c>
       <c r="C2" t="n">
-        <v>0.866148</v>
+        <v>0.799876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.879461</v>
+        <v>0.782745</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.920173</v>
+        <v>0.852517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.869722</v>
+        <v>0.787453</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8673</v>
+        <v>0.784816</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.936608</v>
+        <v>0.890709</v>
       </c>
       <c r="C4" t="n">
-        <v>0.845492</v>
+        <v>0.808933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.86217</v>
+        <v>0.811439</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.904632</v>
+        <v>0.870482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.892953</v>
+        <v>0.803889</v>
       </c>
       <c r="D5" t="n">
-        <v>0.950621</v>
+        <v>0.801941</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.961974</v>
+        <v>0.880367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.94523</v>
+        <v>0.815142</v>
       </c>
       <c r="D6" t="n">
-        <v>0.923382</v>
+        <v>0.826365</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.905608</v>
+        <v>0.895521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.851963</v>
+        <v>0.813706</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877712</v>
+        <v>0.800383</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.901389</v>
+        <v>0.8917310000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.834371</v>
+        <v>0.819918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.865276</v>
+        <v>0.827485</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9260620000000001</v>
+        <v>0.897986</v>
       </c>
       <c r="C9" t="n">
-        <v>0.82975</v>
+        <v>0.837896</v>
       </c>
       <c r="D9" t="n">
-        <v>0.866721</v>
+        <v>0.837732</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.929694</v>
+        <v>0.901621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.853262</v>
+        <v>0.841452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8594270000000001</v>
+        <v>0.836502</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.941483</v>
+        <v>0.893326</v>
       </c>
       <c r="C11" t="n">
-        <v>0.874391</v>
+        <v>0.8334510000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.899671</v>
+        <v>0.872741</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.97986</v>
+        <v>0.945036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.864745</v>
+        <v>0.865768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9326179999999999</v>
+        <v>0.8759</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.986267</v>
+        <v>0.9874849999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.875741</v>
+        <v>0.873628</v>
       </c>
       <c r="D13" t="n">
-        <v>0.929274</v>
+        <v>0.924446</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.996245</v>
+        <v>1.003</v>
       </c>
       <c r="C14" t="n">
-        <v>0.904388</v>
+        <v>0.8887890000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.973181</v>
+        <v>0.9179079999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.00239</v>
+        <v>1.00326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.911873</v>
+        <v>0.877744</v>
       </c>
       <c r="D15" t="n">
-        <v>0.987405</v>
+        <v>0.946271</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.05304</v>
+        <v>1.02465</v>
       </c>
       <c r="C16" t="n">
-        <v>0.90755</v>
+        <v>0.909446</v>
       </c>
       <c r="D16" t="n">
-        <v>0.990195</v>
+        <v>0.957091</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.05171</v>
+        <v>1.05951</v>
       </c>
       <c r="C17" t="n">
-        <v>0.936319</v>
+        <v>0.92892</v>
       </c>
       <c r="D17" t="n">
-        <v>1.00317</v>
+        <v>0.9816510000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.08768</v>
+        <v>1.07504</v>
       </c>
       <c r="C18" t="n">
-        <v>0.946817</v>
+        <v>0.925859</v>
       </c>
       <c r="D18" t="n">
-        <v>1.03236</v>
+        <v>1.01124</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.09721</v>
+        <v>1.09078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.940198</v>
+        <v>0.920736</v>
       </c>
       <c r="D19" t="n">
-        <v>1.05497</v>
+        <v>1.0141</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.11507</v>
+        <v>1.12061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.96365</v>
+        <v>0.9505980000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0897</v>
+        <v>1.06657</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.14751</v>
+        <v>1.14254</v>
       </c>
       <c r="C21" t="n">
-        <v>0.984529</v>
+        <v>0.998505</v>
       </c>
       <c r="D21" t="n">
-        <v>1.17091</v>
+        <v>1.11386</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.17885</v>
+        <v>1.18116</v>
       </c>
       <c r="C22" t="n">
-        <v>1.02119</v>
+        <v>1.02149</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16399</v>
+        <v>1.12309</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.20137</v>
+        <v>1.18695</v>
       </c>
       <c r="C23" t="n">
-        <v>1.03751</v>
+        <v>1.03452</v>
       </c>
       <c r="D23" t="n">
-        <v>1.21032</v>
+        <v>1.17935</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.22427</v>
+        <v>1.18673</v>
       </c>
       <c r="C24" t="n">
-        <v>1.06281</v>
+        <v>1.02926</v>
       </c>
       <c r="D24" t="n">
-        <v>1.21962</v>
+        <v>1.19997</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.26524</v>
+        <v>1.24304</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08375</v>
+        <v>1.05518</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24956</v>
+        <v>1.22821</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.26968</v>
+        <v>1.27957</v>
       </c>
       <c r="C26" t="n">
-        <v>1.11324</v>
+        <v>1.0991</v>
       </c>
       <c r="D26" t="n">
-        <v>1.29002</v>
+        <v>1.22919</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.33863</v>
+        <v>1.30217</v>
       </c>
       <c r="C27" t="n">
-        <v>1.10263</v>
+        <v>1.10177</v>
       </c>
       <c r="D27" t="n">
-        <v>1.33427</v>
+        <v>1.26481</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.37697</v>
+        <v>1.33729</v>
       </c>
       <c r="C28" t="n">
-        <v>1.16739</v>
+        <v>1.12291</v>
       </c>
       <c r="D28" t="n">
-        <v>1.37446</v>
+        <v>1.34127</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.43155</v>
+        <v>1.38263</v>
       </c>
       <c r="C29" t="n">
-        <v>1.20883</v>
+        <v>1.16654</v>
       </c>
       <c r="D29" t="n">
-        <v>1.45499</v>
+        <v>1.3752</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.46782</v>
+        <v>1.44133</v>
       </c>
       <c r="C30" t="n">
-        <v>1.23186</v>
+        <v>1.20597</v>
       </c>
       <c r="D30" t="n">
-        <v>1.46889</v>
+        <v>1.3876</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.49362</v>
+        <v>1.43731</v>
       </c>
       <c r="C31" t="n">
-        <v>1.24633</v>
+        <v>1.23574</v>
       </c>
       <c r="D31" t="n">
-        <v>1.50365</v>
+        <v>1.46379</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.53119</v>
+        <v>1.53747</v>
       </c>
       <c r="C32" t="n">
-        <v>1.28383</v>
+        <v>1.26052</v>
       </c>
       <c r="D32" t="n">
-        <v>1.60294</v>
+        <v>1.50689</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.61958</v>
+        <v>1.55301</v>
       </c>
       <c r="C33" t="n">
-        <v>1.36921</v>
+        <v>1.31365</v>
       </c>
       <c r="D33" t="n">
-        <v>1.58853</v>
+        <v>1.54299</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.63628</v>
+        <v>1.58326</v>
       </c>
       <c r="C34" t="n">
-        <v>1.35235</v>
+        <v>1.32338</v>
       </c>
       <c r="D34" t="n">
-        <v>1.64061</v>
+        <v>1.61138</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.66973</v>
+        <v>1.62756</v>
       </c>
       <c r="C35" t="n">
-        <v>1.40064</v>
+        <v>1.39537</v>
       </c>
       <c r="D35" t="n">
-        <v>1.85678</v>
+        <v>1.73435</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.73475</v>
+        <v>1.72784</v>
       </c>
       <c r="C36" t="n">
-        <v>1.50795</v>
+        <v>1.43007</v>
       </c>
       <c r="D36" t="n">
-        <v>1.85867</v>
+        <v>1.81661</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.79345</v>
+        <v>1.76661</v>
       </c>
       <c r="C37" t="n">
-        <v>1.49878</v>
+        <v>1.45983</v>
       </c>
       <c r="D37" t="n">
-        <v>1.93001</v>
+        <v>1.90973</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.794</v>
+        <v>1.78153</v>
       </c>
       <c r="C38" t="n">
-        <v>1.57997</v>
+        <v>1.54308</v>
       </c>
       <c r="D38" t="n">
-        <v>1.95726</v>
+        <v>1.92752</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.89363</v>
+        <v>1.8392</v>
       </c>
       <c r="C39" t="n">
-        <v>1.65454</v>
+        <v>1.56812</v>
       </c>
       <c r="D39" t="n">
-        <v>2.08078</v>
+        <v>2.03283</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.90733</v>
+        <v>1.90227</v>
       </c>
       <c r="C40" t="n">
-        <v>1.68189</v>
+        <v>1.69494</v>
       </c>
       <c r="D40" t="n">
-        <v>2.15388</v>
+        <v>2.06415</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.98244</v>
+        <v>1.99671</v>
       </c>
       <c r="C41" t="n">
-        <v>1.73232</v>
+        <v>1.71726</v>
       </c>
       <c r="D41" t="n">
-        <v>2.17691</v>
+        <v>2.13033</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.05299</v>
+        <v>2.00793</v>
       </c>
       <c r="C42" t="n">
-        <v>1.80481</v>
+        <v>1.81106</v>
       </c>
       <c r="D42" t="n">
-        <v>2.25809</v>
+        <v>2.21535</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.09471</v>
+        <v>2.07328</v>
       </c>
       <c r="C43" t="n">
-        <v>1.88859</v>
+        <v>1.82335</v>
       </c>
       <c r="D43" t="n">
-        <v>2.32243</v>
+        <v>2.25887</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.1412</v>
+        <v>2.13727</v>
       </c>
       <c r="C44" t="n">
-        <v>1.94059</v>
+        <v>1.90998</v>
       </c>
       <c r="D44" t="n">
-        <v>2.40336</v>
+        <v>2.32543</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.15834</v>
+        <v>2.16594</v>
       </c>
       <c r="C45" t="n">
-        <v>1.974</v>
+        <v>1.96463</v>
       </c>
       <c r="D45" t="n">
-        <v>2.41709</v>
+        <v>2.38008</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.21289</v>
+        <v>2.2245</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0348</v>
+        <v>2.04887</v>
       </c>
       <c r="D46" t="n">
-        <v>2.46813</v>
+        <v>2.49315</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.24994</v>
+        <v>2.22722</v>
       </c>
       <c r="C47" t="n">
-        <v>2.11308</v>
+        <v>2.13415</v>
       </c>
       <c r="D47" t="n">
-        <v>2.57759</v>
+        <v>2.54842</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.33163</v>
+        <v>2.31511</v>
       </c>
       <c r="C48" t="n">
-        <v>2.10236</v>
+        <v>2.15664</v>
       </c>
       <c r="D48" t="n">
-        <v>2.54364</v>
+        <v>2.5782</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.34882</v>
+        <v>2.39285</v>
       </c>
       <c r="C49" t="n">
-        <v>2.19185</v>
+        <v>2.17901</v>
       </c>
       <c r="D49" t="n">
-        <v>2.60168</v>
+        <v>2.67029</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.36467</v>
+        <v>2.43737</v>
       </c>
       <c r="C50" t="n">
-        <v>2.28818</v>
+        <v>2.28212</v>
       </c>
       <c r="D50" t="n">
-        <v>2.80548</v>
+        <v>2.75062</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.46443</v>
+        <v>2.49132</v>
       </c>
       <c r="C51" t="n">
-        <v>2.32761</v>
+        <v>2.35333</v>
       </c>
       <c r="D51" t="n">
-        <v>2.78846</v>
+        <v>2.84202</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.42941</v>
+        <v>2.46975</v>
       </c>
       <c r="C52" t="n">
-        <v>2.34108</v>
+        <v>2.35942</v>
       </c>
       <c r="D52" t="n">
-        <v>2.8258</v>
+        <v>2.84638</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.58287</v>
+        <v>2.54065</v>
       </c>
       <c r="C53" t="n">
-        <v>2.41888</v>
+        <v>2.4317</v>
       </c>
       <c r="D53" t="n">
-        <v>2.87757</v>
+        <v>2.86445</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.54322</v>
+        <v>2.5564</v>
       </c>
       <c r="C54" t="n">
-        <v>2.46137</v>
+        <v>2.45025</v>
       </c>
       <c r="D54" t="n">
-        <v>2.9931</v>
+        <v>2.95782</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.55988</v>
+        <v>2.59203</v>
       </c>
       <c r="C55" t="n">
-        <v>2.47813</v>
+        <v>2.49284</v>
       </c>
       <c r="D55" t="n">
-        <v>2.98837</v>
+        <v>2.9694</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>2.64338</v>
+        <v>2.61775</v>
       </c>
       <c r="C56" t="n">
-        <v>2.4913</v>
+        <v>2.51179</v>
       </c>
       <c r="D56" t="n">
-        <v>2.97843</v>
+        <v>3.00799</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>2.67288</v>
+        <v>2.65963</v>
       </c>
       <c r="C57" t="n">
-        <v>2.55824</v>
+        <v>2.54665</v>
       </c>
       <c r="D57" t="n">
-        <v>3.08131</v>
+        <v>3.03242</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>2.7</v>
+        <v>2.71728</v>
       </c>
       <c r="C58" t="n">
-        <v>2.579</v>
+        <v>2.61202</v>
       </c>
       <c r="D58" t="n">
-        <v>3.09845</v>
+        <v>3.09676</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>2.73302</v>
+        <v>2.736</v>
       </c>
       <c r="C59" t="n">
-        <v>2.64277</v>
+        <v>2.62891</v>
       </c>
       <c r="D59" t="n">
-        <v>3.20282</v>
+        <v>3.19791</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>2.69707</v>
+        <v>2.79167</v>
       </c>
       <c r="C60" t="n">
-        <v>2.61037</v>
+        <v>2.60555</v>
       </c>
       <c r="D60" t="n">
-        <v>3.18585</v>
+        <v>3.1507</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>2.79738</v>
+        <v>2.84156</v>
       </c>
       <c r="C61" t="n">
-        <v>2.67591</v>
+        <v>2.70177</v>
       </c>
       <c r="D61" t="n">
-        <v>3.26243</v>
+        <v>3.21683</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>2.85106</v>
+        <v>2.8565</v>
       </c>
       <c r="C62" t="n">
-        <v>2.73921</v>
+        <v>2.74126</v>
       </c>
       <c r="D62" t="n">
-        <v>3.28098</v>
+        <v>3.29693</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.85533</v>
+        <v>2.86892</v>
       </c>
       <c r="C63" t="n">
-        <v>2.71945</v>
+        <v>2.80306</v>
       </c>
       <c r="D63" t="n">
-        <v>3.35476</v>
+        <v>3.28822</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.88698</v>
+        <v>2.91591</v>
       </c>
       <c r="C64" t="n">
-        <v>2.78069</v>
+        <v>2.82849</v>
       </c>
       <c r="D64" t="n">
-        <v>3.37674</v>
+        <v>3.33954</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.98436</v>
+        <v>2.99192</v>
       </c>
       <c r="C65" t="n">
-        <v>2.84632</v>
+        <v>2.85928</v>
       </c>
       <c r="D65" t="n">
-        <v>3.39366</v>
+        <v>3.38207</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.9726</v>
+        <v>3.01606</v>
       </c>
       <c r="C66" t="n">
-        <v>2.85153</v>
+        <v>2.89872</v>
       </c>
       <c r="D66" t="n">
-        <v>3.39429</v>
+        <v>3.45812</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>3.02156</v>
+        <v>3.00625</v>
       </c>
       <c r="C67" t="n">
-        <v>2.8942</v>
+        <v>2.89916</v>
       </c>
       <c r="D67" t="n">
-        <v>3.49655</v>
+        <v>3.4467</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.02357</v>
+        <v>3.01153</v>
       </c>
       <c r="C68" t="n">
-        <v>2.91549</v>
+        <v>2.94176</v>
       </c>
       <c r="D68" t="n">
-        <v>3.51411</v>
+        <v>3.45361</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.03776</v>
+        <v>3.09112</v>
       </c>
       <c r="C69" t="n">
-        <v>2.92309</v>
+        <v>2.93187</v>
       </c>
       <c r="D69" t="n">
-        <v>3.49288</v>
+        <v>3.40608</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.0713</v>
+        <v>3.11995</v>
       </c>
       <c r="C70" t="n">
-        <v>2.9781</v>
+        <v>3.00455</v>
       </c>
       <c r="D70" t="n">
-        <v>3.53994</v>
+        <v>3.48342</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.17119</v>
+        <v>3.17269</v>
       </c>
       <c r="C71" t="n">
-        <v>3.0105</v>
+        <v>3.05663</v>
       </c>
       <c r="D71" t="n">
-        <v>3.64273</v>
+        <v>3.58714</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.16963</v>
+        <v>3.20816</v>
       </c>
       <c r="C72" t="n">
-        <v>3.03453</v>
+        <v>3.01799</v>
       </c>
       <c r="D72" t="n">
-        <v>3.54573</v>
+        <v>3.60289</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.20441</v>
+        <v>3.27928</v>
       </c>
       <c r="C73" t="n">
-        <v>3.01733</v>
+        <v>3.0611</v>
       </c>
       <c r="D73" t="n">
-        <v>3.59732</v>
+        <v>3.62225</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.16385</v>
+        <v>3.3361</v>
       </c>
       <c r="C74" t="n">
-        <v>3.02748</v>
+        <v>3.0714</v>
       </c>
       <c r="D74" t="n">
-        <v>3.71165</v>
+        <v>3.65685</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.18447</v>
+        <v>3.296</v>
       </c>
       <c r="C75" t="n">
-        <v>3.04455</v>
+        <v>3.05823</v>
       </c>
       <c r="D75" t="n">
-        <v>3.68129</v>
+        <v>3.62228</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.27657</v>
+        <v>3.35387</v>
       </c>
       <c r="C76" t="n">
-        <v>3.12557</v>
+        <v>3.12606</v>
       </c>
       <c r="D76" t="n">
-        <v>3.77011</v>
+        <v>3.69354</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.28153</v>
+        <v>3.37497</v>
       </c>
       <c r="C77" t="n">
-        <v>3.16096</v>
+        <v>3.16505</v>
       </c>
       <c r="D77" t="n">
-        <v>3.79287</v>
+        <v>3.71603</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.37127</v>
+        <v>3.43877</v>
       </c>
       <c r="C78" t="n">
-        <v>3.16335</v>
+        <v>3.23211</v>
       </c>
       <c r="D78" t="n">
-        <v>3.80357</v>
+        <v>3.81213</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.36627</v>
+        <v>3.43217</v>
       </c>
       <c r="C79" t="n">
-        <v>3.24648</v>
+        <v>3.22693</v>
       </c>
       <c r="D79" t="n">
-        <v>3.81655</v>
+        <v>3.82732</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.36563</v>
+        <v>3.50076</v>
       </c>
       <c r="C80" t="n">
-        <v>3.23697</v>
+        <v>3.30932</v>
       </c>
       <c r="D80" t="n">
-        <v>3.85876</v>
+        <v>3.91952</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.51595</v>
+        <v>3.61975</v>
       </c>
       <c r="C81" t="n">
-        <v>3.24557</v>
+        <v>3.271</v>
       </c>
       <c r="D81" t="n">
-        <v>4.07349</v>
+        <v>3.92234</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.50616</v>
+        <v>3.58918</v>
       </c>
       <c r="C82" t="n">
-        <v>3.30394</v>
+        <v>3.35174</v>
       </c>
       <c r="D82" t="n">
-        <v>4.00896</v>
+        <v>4.01875</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.50969</v>
+        <v>3.55586</v>
       </c>
       <c r="C83" t="n">
-        <v>3.26111</v>
+        <v>3.32914</v>
       </c>
       <c r="D83" t="n">
-        <v>3.98827</v>
+        <v>3.93323</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.70447</v>
+        <v>3.64134</v>
       </c>
       <c r="C84" t="n">
-        <v>3.29801</v>
+        <v>3.46075</v>
       </c>
       <c r="D84" t="n">
-        <v>4.06892</v>
+        <v>4.07406</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.61442</v>
+        <v>3.73758</v>
       </c>
       <c r="C85" t="n">
-        <v>3.37426</v>
+        <v>3.4235</v>
       </c>
       <c r="D85" t="n">
-        <v>4.00987</v>
+        <v>4.08527</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.63614</v>
+        <v>3.85002</v>
       </c>
       <c r="C86" t="n">
-        <v>3.48012</v>
+        <v>3.47969</v>
       </c>
       <c r="D86" t="n">
-        <v>4.09934</v>
+        <v>4.2181</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.73471</v>
+        <v>3.75594</v>
       </c>
       <c r="C87" t="n">
-        <v>3.49132</v>
+        <v>3.42496</v>
       </c>
       <c r="D87" t="n">
-        <v>4.09612</v>
+        <v>4.26636</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.68556</v>
+        <v>3.95891</v>
       </c>
       <c r="C88" t="n">
-        <v>3.39576</v>
+        <v>3.55785</v>
       </c>
       <c r="D88" t="n">
-        <v>4.16911</v>
+        <v>4.19801</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>3.84438</v>
+        <v>3.78845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.45254</v>
+        <v>3.49393</v>
       </c>
       <c r="D89" t="n">
-        <v>4.29418</v>
+        <v>4.27815</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.75031</v>
+        <v>4.01297</v>
       </c>
       <c r="C90" t="n">
-        <v>3.49893</v>
+        <v>3.5804</v>
       </c>
       <c r="D90" t="n">
-        <v>4.41752</v>
+        <v>4.25187</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.9199</v>
+        <v>3.96337</v>
       </c>
       <c r="C91" t="n">
-        <v>3.56238</v>
+        <v>3.59748</v>
       </c>
       <c r="D91" t="n">
-        <v>4.3452</v>
+        <v>4.19562</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.94325</v>
+        <v>3.9747</v>
       </c>
       <c r="C92" t="n">
-        <v>3.55165</v>
+        <v>3.57827</v>
       </c>
       <c r="D92" t="n">
-        <v>4.47745</v>
+        <v>4.39989</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>3.99138</v>
+        <v>4.05608</v>
       </c>
       <c r="C93" t="n">
-        <v>3.73746</v>
+        <v>3.74092</v>
       </c>
       <c r="D93" t="n">
-        <v>4.48494</v>
+        <v>4.50638</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>3.9826</v>
+        <v>4.17679</v>
       </c>
       <c r="C94" t="n">
-        <v>3.73049</v>
+        <v>3.76759</v>
       </c>
       <c r="D94" t="n">
-        <v>4.51586</v>
+        <v>4.52394</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.09922</v>
+        <v>4.22761</v>
       </c>
       <c r="C95" t="n">
-        <v>3.75514</v>
+        <v>3.96603</v>
       </c>
       <c r="D95" t="n">
-        <v>4.56136</v>
+        <v>4.69789</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.28969</v>
+        <v>4.38002</v>
       </c>
       <c r="C96" t="n">
-        <v>3.95799</v>
+        <v>3.971</v>
       </c>
       <c r="D96" t="n">
-        <v>4.71557</v>
+        <v>4.85341</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.25273</v>
+        <v>4.44999</v>
       </c>
       <c r="C97" t="n">
-        <v>3.9025</v>
+        <v>4.02561</v>
       </c>
       <c r="D97" t="n">
-        <v>4.72542</v>
+        <v>4.83173</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.48563</v>
+        <v>4.6079</v>
       </c>
       <c r="C98" t="n">
-        <v>3.95158</v>
+        <v>4.2304</v>
       </c>
       <c r="D98" t="n">
-        <v>4.8039</v>
+        <v>5.032</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.43091</v>
+        <v>4.70502</v>
       </c>
       <c r="C99" t="n">
-        <v>4.08041</v>
+        <v>4.27431</v>
       </c>
       <c r="D99" t="n">
-        <v>4.85867</v>
+        <v>5.09861</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.49795</v>
+        <v>4.85817</v>
       </c>
       <c r="C100" t="n">
-        <v>4.08599</v>
+        <v>4.31201</v>
       </c>
       <c r="D100" t="n">
-        <v>4.96981</v>
+        <v>5.11649</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.61322</v>
+        <v>4.99087</v>
       </c>
       <c r="C101" t="n">
-        <v>4.28035</v>
+        <v>4.38554</v>
       </c>
       <c r="D101" t="n">
-        <v>5.06173</v>
+        <v>5.22119</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.63762</v>
+        <v>5.00121</v>
       </c>
       <c r="C102" t="n">
-        <v>4.26435</v>
+        <v>4.45437</v>
       </c>
       <c r="D102" t="n">
-        <v>5.07307</v>
+        <v>5.29805</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.79552</v>
+        <v>5.10201</v>
       </c>
       <c r="C103" t="n">
-        <v>4.32508</v>
+        <v>4.54673</v>
       </c>
       <c r="D103" t="n">
-        <v>5.17317</v>
+        <v>5.32292</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>4.92615</v>
+        <v>5.22233</v>
       </c>
       <c r="C104" t="n">
-        <v>4.42588</v>
+        <v>4.65741</v>
       </c>
       <c r="D104" t="n">
-        <v>5.28837</v>
+        <v>5.4466</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.08033</v>
+        <v>5.3247</v>
       </c>
       <c r="C105" t="n">
-        <v>4.48554</v>
+        <v>4.64204</v>
       </c>
       <c r="D105" t="n">
-        <v>5.36496</v>
+        <v>5.63855</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.1542</v>
+        <v>5.43996</v>
       </c>
       <c r="C106" t="n">
-        <v>4.62781</v>
+        <v>4.67783</v>
       </c>
       <c r="D106" t="n">
-        <v>5.57913</v>
+        <v>5.56996</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.28064</v>
+        <v>5.56116</v>
       </c>
       <c r="C107" t="n">
-        <v>4.73815</v>
+        <v>4.84918</v>
       </c>
       <c r="D107" t="n">
-        <v>5.64053</v>
+        <v>5.68236</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.44038</v>
+        <v>5.59491</v>
       </c>
       <c r="C108" t="n">
-        <v>4.77718</v>
+        <v>4.82899</v>
       </c>
       <c r="D108" t="n">
-        <v>5.81749</v>
+        <v>5.91004</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.48121</v>
+        <v>5.70369</v>
       </c>
       <c r="C109" t="n">
-        <v>4.91744</v>
+        <v>4.98281</v>
       </c>
       <c r="D109" t="n">
-        <v>6.01547</v>
+        <v>6.16139</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.59618</v>
+        <v>5.71955</v>
       </c>
       <c r="C110" t="n">
-        <v>4.99013</v>
+        <v>5.13576</v>
       </c>
       <c r="D110" t="n">
-        <v>6.01216</v>
+        <v>6.1551</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>5.73646</v>
+        <v>6.0658</v>
       </c>
       <c r="C111" t="n">
-        <v>5.04809</v>
+        <v>5.39848</v>
       </c>
       <c r="D111" t="n">
-        <v>6.13627</v>
+        <v>6.35842</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>5.86762</v>
+        <v>5.97749</v>
       </c>
       <c r="C112" t="n">
-        <v>5.11443</v>
+        <v>5.35762</v>
       </c>
       <c r="D112" t="n">
-        <v>6.26985</v>
+        <v>6.38737</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.04012</v>
+        <v>6.13783</v>
       </c>
       <c r="C113" t="n">
-        <v>5.26005</v>
+        <v>5.29269</v>
       </c>
       <c r="D113" t="n">
-        <v>6.37507</v>
+        <v>6.43779</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.15977</v>
+        <v>6.27024</v>
       </c>
       <c r="C114" t="n">
-        <v>5.37807</v>
+        <v>5.50252</v>
       </c>
       <c r="D114" t="n">
-        <v>6.54345</v>
+        <v>6.68495</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.22426</v>
+        <v>6.37037</v>
       </c>
       <c r="C115" t="n">
-        <v>5.49073</v>
+        <v>5.47193</v>
       </c>
       <c r="D115" t="n">
-        <v>6.66459</v>
+        <v>6.73437</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>6.40228</v>
+        <v>6.62916</v>
       </c>
       <c r="C116" t="n">
-        <v>5.52256</v>
+        <v>5.7092</v>
       </c>
       <c r="D116" t="n">
-        <v>6.74212</v>
+        <v>7.00711</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>6.535</v>
+        <v>6.69206</v>
       </c>
       <c r="C117" t="n">
-        <v>5.63969</v>
+        <v>5.68314</v>
       </c>
       <c r="D117" t="n">
-        <v>6.86655</v>
+        <v>6.91343</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>6.63477</v>
+        <v>6.82767</v>
       </c>
       <c r="C118" t="n">
-        <v>5.80395</v>
+        <v>5.90605</v>
       </c>
       <c r="D118" t="n">
-        <v>6.95913</v>
+        <v>7.13642</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>6.77049</v>
+        <v>7.05574</v>
       </c>
       <c r="C119" t="n">
-        <v>5.84513</v>
+        <v>5.93907</v>
       </c>
       <c r="D119" t="n">
-        <v>7.09927</v>
+        <v>7.36935</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8987889999999999</v>
+        <v>0.912069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.801075</v>
+        <v>0.815062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.818562</v>
+        <v>0.811868</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.867433</v>
+        <v>0.913408</v>
       </c>
       <c r="C3" t="n">
-        <v>0.806706</v>
+        <v>0.831212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.836854</v>
+        <v>0.85454</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.887367</v>
+        <v>0.926516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.81588</v>
+        <v>0.83786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.827972</v>
+        <v>0.847793</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.93474</v>
+        <v>0.95478</v>
       </c>
       <c r="C5" t="n">
-        <v>0.829122</v>
+        <v>0.85461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.845046</v>
+        <v>0.8549330000000001</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9043</v>
+        <v>0.940225</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8244669999999999</v>
+        <v>0.85878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.849924</v>
+        <v>0.858421</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9012520000000001</v>
+        <v>0.940229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.837626</v>
+        <v>0.846276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.852559</v>
+        <v>0.879184</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9509609999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.838585</v>
+        <v>0.852537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.878108</v>
+        <v>0.877838</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9248690000000001</v>
+        <v>0.940895</v>
       </c>
       <c r="C9" t="n">
-        <v>0.857087</v>
+        <v>0.845464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.888486</v>
+        <v>0.889402</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.0082</v>
+        <v>0.960716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.854282</v>
+        <v>0.864379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9037500000000001</v>
+        <v>0.918331</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.99574</v>
+        <v>1.01502</v>
       </c>
       <c r="C11" t="n">
-        <v>0.868201</v>
+        <v>0.884453</v>
       </c>
       <c r="D11" t="n">
-        <v>0.924838</v>
+        <v>0.921689</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.989806</v>
+        <v>1.00046</v>
       </c>
       <c r="C12" t="n">
-        <v>0.857359</v>
+        <v>0.882534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.942321</v>
+        <v>0.963916</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.03814</v>
+        <v>1.03884</v>
       </c>
       <c r="C13" t="n">
-        <v>0.874759</v>
+        <v>0.916319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.964278</v>
+        <v>0.989169</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.03488</v>
+        <v>1.076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.903701</v>
+        <v>0.942091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.979799</v>
+        <v>1.02255</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.06834</v>
+        <v>1.06487</v>
       </c>
       <c r="C15" t="n">
-        <v>0.916115</v>
+        <v>0.94957</v>
       </c>
       <c r="D15" t="n">
-        <v>1.02069</v>
+        <v>1.00171</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.08199</v>
+        <v>1.11329</v>
       </c>
       <c r="C16" t="n">
-        <v>0.909613</v>
+        <v>0.944763</v>
       </c>
       <c r="D16" t="n">
-        <v>1.01405</v>
+        <v>1.02259</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.07355</v>
+        <v>1.10917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9446560000000001</v>
+        <v>0.955502</v>
       </c>
       <c r="D17" t="n">
-        <v>1.05129</v>
+        <v>1.05194</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1345</v>
+        <v>1.10766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.965674</v>
+        <v>0.983608</v>
       </c>
       <c r="D18" t="n">
-        <v>1.07998</v>
+        <v>1.06933</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.1497</v>
+        <v>1.16855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.963155</v>
+        <v>0.994186</v>
       </c>
       <c r="D19" t="n">
-        <v>1.08495</v>
+        <v>1.09671</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.18214</v>
+        <v>1.22708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.99451</v>
+        <v>1.01671</v>
       </c>
       <c r="D20" t="n">
-        <v>1.11882</v>
+        <v>1.10527</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.24758</v>
+        <v>1.23708</v>
       </c>
       <c r="C21" t="n">
-        <v>1.02459</v>
+        <v>1.0269</v>
       </c>
       <c r="D21" t="n">
-        <v>1.15857</v>
+        <v>1.14856</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.23059</v>
+        <v>1.25729</v>
       </c>
       <c r="C22" t="n">
-        <v>1.04631</v>
+        <v>1.04438</v>
       </c>
       <c r="D22" t="n">
-        <v>1.21242</v>
+        <v>1.16045</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.24291</v>
+        <v>1.26523</v>
       </c>
       <c r="C23" t="n">
-        <v>1.06011</v>
+        <v>1.06852</v>
       </c>
       <c r="D23" t="n">
-        <v>1.2296</v>
+        <v>1.23083</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.2848</v>
+        <v>1.29811</v>
       </c>
       <c r="C24" t="n">
-        <v>1.07767</v>
+        <v>1.07702</v>
       </c>
       <c r="D24" t="n">
-        <v>1.23553</v>
+        <v>1.25202</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.3402</v>
+        <v>1.32444</v>
       </c>
       <c r="C25" t="n">
-        <v>1.10066</v>
+        <v>1.10496</v>
       </c>
       <c r="D25" t="n">
-        <v>1.28132</v>
+        <v>1.24528</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.34938</v>
+        <v>1.36484</v>
       </c>
       <c r="C26" t="n">
-        <v>1.10096</v>
+        <v>1.08842</v>
       </c>
       <c r="D26" t="n">
-        <v>1.35457</v>
+        <v>1.29296</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.39169</v>
+        <v>1.39406</v>
       </c>
       <c r="C27" t="n">
-        <v>1.11538</v>
+        <v>1.15253</v>
       </c>
       <c r="D27" t="n">
-        <v>1.36261</v>
+        <v>1.39309</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.44799</v>
+        <v>1.47854</v>
       </c>
       <c r="C28" t="n">
-        <v>1.1466</v>
+        <v>1.163</v>
       </c>
       <c r="D28" t="n">
-        <v>1.39628</v>
+        <v>1.38353</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.46662</v>
+        <v>1.49694</v>
       </c>
       <c r="C29" t="n">
-        <v>1.19747</v>
+        <v>1.19516</v>
       </c>
       <c r="D29" t="n">
-        <v>1.44667</v>
+        <v>1.43723</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.51414</v>
+        <v>1.52519</v>
       </c>
       <c r="C30" t="n">
-        <v>1.2197</v>
+        <v>1.20975</v>
       </c>
       <c r="D30" t="n">
-        <v>1.51054</v>
+        <v>1.45445</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.57609</v>
+        <v>1.55049</v>
       </c>
       <c r="C31" t="n">
-        <v>1.23579</v>
+        <v>1.24522</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5295</v>
+        <v>1.54567</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.56893</v>
+        <v>1.57618</v>
       </c>
       <c r="C32" t="n">
-        <v>1.28466</v>
+        <v>1.28073</v>
       </c>
       <c r="D32" t="n">
-        <v>1.57533</v>
+        <v>1.56838</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.66741</v>
+        <v>1.65721</v>
       </c>
       <c r="C33" t="n">
-        <v>1.32423</v>
+        <v>1.31941</v>
       </c>
       <c r="D33" t="n">
-        <v>1.61977</v>
+        <v>1.5985</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.73512</v>
+        <v>1.72337</v>
       </c>
       <c r="C34" t="n">
-        <v>1.35101</v>
+        <v>1.38224</v>
       </c>
       <c r="D34" t="n">
-        <v>1.71604</v>
+        <v>1.67951</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.75236</v>
+        <v>1.75332</v>
       </c>
       <c r="C35" t="n">
-        <v>1.41271</v>
+        <v>1.40386</v>
       </c>
       <c r="D35" t="n">
-        <v>1.81197</v>
+        <v>1.73289</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.80349</v>
+        <v>1.825</v>
       </c>
       <c r="C36" t="n">
-        <v>1.43875</v>
+        <v>1.46115</v>
       </c>
       <c r="D36" t="n">
-        <v>1.89331</v>
+        <v>1.80411</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.90765</v>
+        <v>1.93324</v>
       </c>
       <c r="C37" t="n">
-        <v>1.53365</v>
+        <v>1.57029</v>
       </c>
       <c r="D37" t="n">
-        <v>1.95885</v>
+        <v>1.86949</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>2.00312</v>
+        <v>1.90022</v>
       </c>
       <c r="C38" t="n">
-        <v>1.56677</v>
+        <v>1.60334</v>
       </c>
       <c r="D38" t="n">
-        <v>2.03435</v>
+        <v>2.00401</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>2.04441</v>
+        <v>2.06598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.65874</v>
+        <v>1.6612</v>
       </c>
       <c r="D39" t="n">
-        <v>2.10699</v>
+        <v>2.07847</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>2.04646</v>
+        <v>2.11676</v>
       </c>
       <c r="C40" t="n">
-        <v>1.68005</v>
+        <v>1.69866</v>
       </c>
       <c r="D40" t="n">
-        <v>2.19382</v>
+        <v>2.15992</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>2.22557</v>
+        <v>2.14106</v>
       </c>
       <c r="C41" t="n">
-        <v>1.73229</v>
+        <v>1.72039</v>
       </c>
       <c r="D41" t="n">
-        <v>2.18028</v>
+        <v>2.1924</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.23728</v>
+        <v>2.28449</v>
       </c>
       <c r="C42" t="n">
-        <v>1.7903</v>
+        <v>1.82196</v>
       </c>
       <c r="D42" t="n">
-        <v>2.26745</v>
+        <v>2.3511</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.28418</v>
+        <v>2.32005</v>
       </c>
       <c r="C43" t="n">
-        <v>1.85296</v>
+        <v>1.86098</v>
       </c>
       <c r="D43" t="n">
-        <v>2.4074</v>
+        <v>2.33561</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.38428</v>
+        <v>2.41883</v>
       </c>
       <c r="C44" t="n">
-        <v>1.96555</v>
+        <v>1.99541</v>
       </c>
       <c r="D44" t="n">
-        <v>2.45008</v>
+        <v>2.48096</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.41051</v>
+        <v>2.47275</v>
       </c>
       <c r="C45" t="n">
-        <v>2.01895</v>
+        <v>2.04619</v>
       </c>
       <c r="D45" t="n">
-        <v>2.57125</v>
+        <v>2.55007</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.5217</v>
+        <v>2.53554</v>
       </c>
       <c r="C46" t="n">
-        <v>2.16296</v>
+        <v>2.08974</v>
       </c>
       <c r="D46" t="n">
-        <v>2.62844</v>
+        <v>2.55752</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.59446</v>
+        <v>2.58409</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1599</v>
+        <v>2.1874</v>
       </c>
       <c r="D47" t="n">
-        <v>2.65447</v>
+        <v>2.67767</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.65366</v>
+        <v>2.62168</v>
       </c>
       <c r="C48" t="n">
-        <v>2.27536</v>
+        <v>2.26868</v>
       </c>
       <c r="D48" t="n">
-        <v>2.78226</v>
+        <v>2.75556</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.66218</v>
+        <v>2.67358</v>
       </c>
       <c r="C49" t="n">
-        <v>2.30081</v>
+        <v>2.30882</v>
       </c>
       <c r="D49" t="n">
-        <v>2.8595</v>
+        <v>2.83333</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.72637</v>
+        <v>2.80555</v>
       </c>
       <c r="C50" t="n">
-        <v>2.41574</v>
+        <v>2.3893</v>
       </c>
       <c r="D50" t="n">
-        <v>2.94442</v>
+        <v>2.84598</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.70289</v>
+        <v>2.84218</v>
       </c>
       <c r="C51" t="n">
-        <v>2.45626</v>
+        <v>2.42372</v>
       </c>
       <c r="D51" t="n">
-        <v>2.9037</v>
+        <v>2.9587</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.87732</v>
+        <v>2.87265</v>
       </c>
       <c r="C52" t="n">
-        <v>2.48889</v>
+        <v>2.4836</v>
       </c>
       <c r="D52" t="n">
-        <v>3.01737</v>
+        <v>3.03425</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.87945</v>
+        <v>2.88532</v>
       </c>
       <c r="C53" t="n">
-        <v>2.5797</v>
+        <v>2.62383</v>
       </c>
       <c r="D53" t="n">
-        <v>3.11283</v>
+        <v>3.12496</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.99234</v>
+        <v>3.04409</v>
       </c>
       <c r="C54" t="n">
-        <v>2.61246</v>
+        <v>2.66474</v>
       </c>
       <c r="D54" t="n">
-        <v>3.14701</v>
+        <v>3.11023</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.97716</v>
+        <v>2.98518</v>
       </c>
       <c r="C55" t="n">
-        <v>2.70051</v>
+        <v>2.71021</v>
       </c>
       <c r="D55" t="n">
-        <v>3.22611</v>
+        <v>3.17464</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>3.07997</v>
+        <v>3.03528</v>
       </c>
       <c r="C56" t="n">
-        <v>2.6846</v>
+        <v>2.65498</v>
       </c>
       <c r="D56" t="n">
-        <v>3.31734</v>
+        <v>3.24055</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>3.14788</v>
+        <v>3.13105</v>
       </c>
       <c r="C57" t="n">
-        <v>2.7788</v>
+        <v>2.73519</v>
       </c>
       <c r="D57" t="n">
-        <v>3.35614</v>
+        <v>3.31307</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>3.16852</v>
+        <v>3.17884</v>
       </c>
       <c r="C58" t="n">
-        <v>2.78433</v>
+        <v>2.80063</v>
       </c>
       <c r="D58" t="n">
-        <v>3.38232</v>
+        <v>3.31159</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>3.20375</v>
+        <v>3.21759</v>
       </c>
       <c r="C59" t="n">
-        <v>2.85143</v>
+        <v>2.94336</v>
       </c>
       <c r="D59" t="n">
-        <v>3.38103</v>
+        <v>3.34227</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>3.25606</v>
+        <v>3.26633</v>
       </c>
       <c r="C60" t="n">
-        <v>2.90887</v>
+        <v>2.88519</v>
       </c>
       <c r="D60" t="n">
-        <v>3.48804</v>
+        <v>3.4302</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>3.26282</v>
+        <v>3.27611</v>
       </c>
       <c r="C61" t="n">
-        <v>2.90912</v>
+        <v>2.96584</v>
       </c>
       <c r="D61" t="n">
-        <v>3.50395</v>
+        <v>3.58542</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>3.35426</v>
+        <v>3.31937</v>
       </c>
       <c r="C62" t="n">
-        <v>2.96664</v>
+        <v>2.98858</v>
       </c>
       <c r="D62" t="n">
-        <v>3.63155</v>
+        <v>3.49979</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>3.33821</v>
+        <v>3.36132</v>
       </c>
       <c r="C63" t="n">
-        <v>3.04613</v>
+        <v>3.01971</v>
       </c>
       <c r="D63" t="n">
-        <v>3.55178</v>
+        <v>3.57693</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>3.43953</v>
+        <v>3.39841</v>
       </c>
       <c r="C64" t="n">
-        <v>3.0973</v>
+        <v>3.06616</v>
       </c>
       <c r="D64" t="n">
-        <v>3.68107</v>
+        <v>3.62381</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>3.45204</v>
+        <v>3.52427</v>
       </c>
       <c r="C65" t="n">
-        <v>3.12268</v>
+        <v>3.13093</v>
       </c>
       <c r="D65" t="n">
-        <v>3.7086</v>
+        <v>3.58496</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>3.51761</v>
+        <v>3.49205</v>
       </c>
       <c r="C66" t="n">
-        <v>3.1794</v>
+        <v>3.14203</v>
       </c>
       <c r="D66" t="n">
-        <v>3.72833</v>
+        <v>3.68616</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>3.55263</v>
+        <v>3.57646</v>
       </c>
       <c r="C67" t="n">
-        <v>3.1997</v>
+        <v>3.16553</v>
       </c>
       <c r="D67" t="n">
-        <v>3.80193</v>
+        <v>3.71927</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.5859</v>
+        <v>3.62163</v>
       </c>
       <c r="C68" t="n">
-        <v>3.25696</v>
+        <v>3.10877</v>
       </c>
       <c r="D68" t="n">
-        <v>3.79551</v>
+        <v>3.76342</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.8091</v>
+        <v>3.6417</v>
       </c>
       <c r="C69" t="n">
-        <v>3.28874</v>
+        <v>3.15504</v>
       </c>
       <c r="D69" t="n">
-        <v>3.91375</v>
+        <v>3.8687</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.72447</v>
+        <v>3.76885</v>
       </c>
       <c r="C70" t="n">
-        <v>3.25955</v>
+        <v>3.21949</v>
       </c>
       <c r="D70" t="n">
-        <v>3.88554</v>
+        <v>3.80357</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.71937</v>
+        <v>3.68783</v>
       </c>
       <c r="C71" t="n">
-        <v>3.19946</v>
+        <v>3.23442</v>
       </c>
       <c r="D71" t="n">
-        <v>3.89753</v>
+        <v>3.9036</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.83512</v>
+        <v>3.78592</v>
       </c>
       <c r="C72" t="n">
-        <v>3.3206</v>
+        <v>3.35389</v>
       </c>
       <c r="D72" t="n">
-        <v>3.98387</v>
+        <v>3.97345</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.95307</v>
+        <v>3.87884</v>
       </c>
       <c r="C73" t="n">
-        <v>3.31413</v>
+        <v>3.40897</v>
       </c>
       <c r="D73" t="n">
-        <v>3.98956</v>
+        <v>4.01361</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.77331</v>
+        <v>3.76557</v>
       </c>
       <c r="C74" t="n">
-        <v>3.33814</v>
+        <v>3.33784</v>
       </c>
       <c r="D74" t="n">
-        <v>4.06442</v>
+        <v>3.99216</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.85303</v>
+        <v>3.87691</v>
       </c>
       <c r="C75" t="n">
-        <v>3.39112</v>
+        <v>3.42726</v>
       </c>
       <c r="D75" t="n">
-        <v>4.01416</v>
+        <v>4.07925</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.69024</v>
+        <v>3.91627</v>
       </c>
       <c r="C76" t="n">
-        <v>3.26921</v>
+        <v>3.56683</v>
       </c>
       <c r="D76" t="n">
-        <v>4.09164</v>
+        <v>4.12138</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.94056</v>
+        <v>3.85655</v>
       </c>
       <c r="C77" t="n">
-        <v>3.43266</v>
+        <v>3.45887</v>
       </c>
       <c r="D77" t="n">
-        <v>4.11217</v>
+        <v>4.05384</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.94204</v>
+        <v>3.87118</v>
       </c>
       <c r="C78" t="n">
-        <v>3.51132</v>
+        <v>3.47783</v>
       </c>
       <c r="D78" t="n">
-        <v>4.19442</v>
+        <v>4.26645</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.94328</v>
+        <v>3.99402</v>
       </c>
       <c r="C79" t="n">
-        <v>3.51157</v>
+        <v>3.44334</v>
       </c>
       <c r="D79" t="n">
-        <v>4.26527</v>
+        <v>4.17907</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>4.04621</v>
+        <v>4.07373</v>
       </c>
       <c r="C80" t="n">
-        <v>3.53396</v>
+        <v>3.56418</v>
       </c>
       <c r="D80" t="n">
-        <v>4.25366</v>
+        <v>4.41393</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>4.14357</v>
+        <v>4.12099</v>
       </c>
       <c r="C81" t="n">
-        <v>3.61783</v>
+        <v>3.58845</v>
       </c>
       <c r="D81" t="n">
-        <v>4.37928</v>
+        <v>4.40034</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>4.22932</v>
+        <v>4.20894</v>
       </c>
       <c r="C82" t="n">
-        <v>3.67377</v>
+        <v>3.7531</v>
       </c>
       <c r="D82" t="n">
-        <v>4.4128</v>
+        <v>4.38437</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>4.21215</v>
+        <v>4.29037</v>
       </c>
       <c r="C83" t="n">
-        <v>3.49623</v>
+        <v>3.57755</v>
       </c>
       <c r="D83" t="n">
-        <v>4.37217</v>
+        <v>4.49393</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>4.25169</v>
+        <v>4.19678</v>
       </c>
       <c r="C84" t="n">
-        <v>3.59174</v>
+        <v>3.6287</v>
       </c>
       <c r="D84" t="n">
-        <v>4.47689</v>
+        <v>4.40686</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>4.36571</v>
+        <v>4.25775</v>
       </c>
       <c r="C85" t="n">
-        <v>3.68372</v>
+        <v>3.78165</v>
       </c>
       <c r="D85" t="n">
-        <v>4.51686</v>
+        <v>4.45402</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.22572</v>
+        <v>4.41354</v>
       </c>
       <c r="C86" t="n">
-        <v>3.66378</v>
+        <v>3.86927</v>
       </c>
       <c r="D86" t="n">
-        <v>4.51841</v>
+        <v>4.58627</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.43726</v>
+        <v>4.39889</v>
       </c>
       <c r="C87" t="n">
-        <v>3.76276</v>
+        <v>3.81419</v>
       </c>
       <c r="D87" t="n">
-        <v>4.52094</v>
+        <v>4.64907</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.51051</v>
+        <v>4.53165</v>
       </c>
       <c r="C88" t="n">
-        <v>3.78213</v>
+        <v>3.82733</v>
       </c>
       <c r="D88" t="n">
-        <v>4.69796</v>
+        <v>4.67995</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>4.31468</v>
+        <v>4.36666</v>
       </c>
       <c r="C89" t="n">
-        <v>3.78721</v>
+        <v>3.78994</v>
       </c>
       <c r="D89" t="n">
-        <v>4.64224</v>
+        <v>4.62337</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.47858</v>
+        <v>4.43445</v>
       </c>
       <c r="C90" t="n">
-        <v>3.94842</v>
+        <v>3.9741</v>
       </c>
       <c r="D90" t="n">
-        <v>4.69414</v>
+        <v>4.80723</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>4.42432</v>
+        <v>4.54765</v>
       </c>
       <c r="C91" t="n">
-        <v>4.01495</v>
+        <v>3.94197</v>
       </c>
       <c r="D91" t="n">
-        <v>4.66707</v>
+        <v>4.71749</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>4.57969</v>
+        <v>4.57407</v>
       </c>
       <c r="C92" t="n">
-        <v>4.01972</v>
+        <v>4.04727</v>
       </c>
       <c r="D92" t="n">
-        <v>4.75676</v>
+        <v>4.93879</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.49146</v>
+        <v>4.72495</v>
       </c>
       <c r="C93" t="n">
-        <v>4.08135</v>
+        <v>4.25618</v>
       </c>
       <c r="D93" t="n">
-        <v>4.91419</v>
+        <v>4.95112</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.59609</v>
+        <v>4.91266</v>
       </c>
       <c r="C94" t="n">
-        <v>4.17317</v>
+        <v>4.31443</v>
       </c>
       <c r="D94" t="n">
-        <v>4.89925</v>
+        <v>5.09957</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.62476</v>
+        <v>4.91698</v>
       </c>
       <c r="C95" t="n">
-        <v>4.30383</v>
+        <v>4.53937</v>
       </c>
       <c r="D95" t="n">
-        <v>5.08826</v>
+        <v>5.13929</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.78851</v>
+        <v>5.01408</v>
       </c>
       <c r="C96" t="n">
-        <v>4.33852</v>
+        <v>4.51697</v>
       </c>
       <c r="D96" t="n">
-        <v>5.04634</v>
+        <v>5.12169</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.79031</v>
+        <v>5.12606</v>
       </c>
       <c r="C97" t="n">
-        <v>4.20171</v>
+        <v>4.32509</v>
       </c>
       <c r="D97" t="n">
-        <v>5.03688</v>
+        <v>5.31817</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.91777</v>
+        <v>5.20307</v>
       </c>
       <c r="C98" t="n">
-        <v>4.23839</v>
+        <v>4.39534</v>
       </c>
       <c r="D98" t="n">
-        <v>5.19599</v>
+        <v>5.2476</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>5.07863</v>
+        <v>5.34046</v>
       </c>
       <c r="C99" t="n">
-        <v>4.35596</v>
+        <v>4.49386</v>
       </c>
       <c r="D99" t="n">
-        <v>5.27636</v>
+        <v>5.39353</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>5.09249</v>
+        <v>5.47352</v>
       </c>
       <c r="C100" t="n">
-        <v>4.46256</v>
+        <v>4.59039</v>
       </c>
       <c r="D100" t="n">
-        <v>5.33736</v>
+        <v>5.40587</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>5.34283</v>
+        <v>5.37262</v>
       </c>
       <c r="C101" t="n">
-        <v>4.52698</v>
+        <v>4.65256</v>
       </c>
       <c r="D101" t="n">
-        <v>5.40408</v>
+        <v>5.50431</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.3956</v>
+        <v>5.46745</v>
       </c>
       <c r="C102" t="n">
-        <v>4.65568</v>
+        <v>4.74799</v>
       </c>
       <c r="D102" t="n">
-        <v>5.52337</v>
+        <v>5.6974</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>5.34534</v>
+        <v>5.49964</v>
       </c>
       <c r="C103" t="n">
-        <v>4.74804</v>
+        <v>4.84762</v>
       </c>
       <c r="D103" t="n">
-        <v>5.62698</v>
+        <v>5.68136</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.47875</v>
+        <v>5.58358</v>
       </c>
       <c r="C104" t="n">
-        <v>4.90694</v>
+        <v>5.01207</v>
       </c>
       <c r="D104" t="n">
-        <v>5.87764</v>
+        <v>5.94212</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.5283</v>
+        <v>5.84974</v>
       </c>
       <c r="C105" t="n">
-        <v>4.99812</v>
+        <v>5.06003</v>
       </c>
       <c r="D105" t="n">
-        <v>5.90144</v>
+        <v>5.88778</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.77952</v>
+        <v>5.84051</v>
       </c>
       <c r="C106" t="n">
-        <v>5.04968</v>
+        <v>5.11756</v>
       </c>
       <c r="D106" t="n">
-        <v>5.99872</v>
+        <v>6.00787</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.73255</v>
+        <v>6.11281</v>
       </c>
       <c r="C107" t="n">
-        <v>5.17447</v>
+        <v>5.24192</v>
       </c>
       <c r="D107" t="n">
-        <v>6.12587</v>
+        <v>6.24245</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.9037</v>
+        <v>6.09128</v>
       </c>
       <c r="C108" t="n">
-        <v>5.35835</v>
+        <v>5.36578</v>
       </c>
       <c r="D108" t="n">
-        <v>6.17509</v>
+        <v>6.30856</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.05929</v>
+        <v>6.15631</v>
       </c>
       <c r="C109" t="n">
-        <v>5.44856</v>
+        <v>5.53451</v>
       </c>
       <c r="D109" t="n">
-        <v>6.36454</v>
+        <v>6.478</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.15612</v>
+        <v>6.42055</v>
       </c>
       <c r="C110" t="n">
-        <v>5.54561</v>
+        <v>5.5617</v>
       </c>
       <c r="D110" t="n">
-        <v>6.43282</v>
+        <v>6.57388</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.30977</v>
+        <v>6.55546</v>
       </c>
       <c r="C111" t="n">
-        <v>5.41622</v>
+        <v>5.55351</v>
       </c>
       <c r="D111" t="n">
-        <v>6.49566</v>
+        <v>6.74143</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.41723</v>
+        <v>6.64339</v>
       </c>
       <c r="C112" t="n">
-        <v>5.4903</v>
+        <v>5.61771</v>
       </c>
       <c r="D112" t="n">
-        <v>6.57162</v>
+        <v>6.70306</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.58745</v>
+        <v>6.78477</v>
       </c>
       <c r="C113" t="n">
-        <v>5.63275</v>
+        <v>5.71093</v>
       </c>
       <c r="D113" t="n">
-        <v>6.73731</v>
+        <v>6.85094</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.69685</v>
+        <v>6.82471</v>
       </c>
       <c r="C114" t="n">
-        <v>5.78121</v>
+        <v>5.80889</v>
       </c>
       <c r="D114" t="n">
-        <v>6.86231</v>
+        <v>6.88345</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.87178</v>
+        <v>6.99138</v>
       </c>
       <c r="C115" t="n">
-        <v>5.86051</v>
+        <v>5.86867</v>
       </c>
       <c r="D115" t="n">
-        <v>6.96093</v>
+        <v>7.0776</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>6.99981</v>
+        <v>7.20758</v>
       </c>
       <c r="C116" t="n">
-        <v>5.98362</v>
+        <v>6.01037</v>
       </c>
       <c r="D116" t="n">
-        <v>7.1088</v>
+        <v>7.1794</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>6.98176</v>
+        <v>7.20307</v>
       </c>
       <c r="C117" t="n">
-        <v>6.1626</v>
+        <v>6.20901</v>
       </c>
       <c r="D117" t="n">
-        <v>7.24462</v>
+        <v>7.35346</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>7.0893</v>
+        <v>7.29702</v>
       </c>
       <c r="C118" t="n">
-        <v>6.21184</v>
+        <v>6.27419</v>
       </c>
       <c r="D118" t="n">
-        <v>7.35513</v>
+        <v>7.40188</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>7.24577</v>
+        <v>7.41283</v>
       </c>
       <c r="C119" t="n">
-        <v>6.36865</v>
+        <v>6.47174</v>
       </c>
       <c r="D119" t="n">
-        <v>7.48003</v>
+        <v>7.56371</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure by key.xlsx
+++ b/vs/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.851963</v>
+        <v>0.862244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.799876</v>
+        <v>0.841461</v>
       </c>
       <c r="D2" t="n">
-        <v>0.782745</v>
+        <v>0.862217</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.852517</v>
+        <v>0.911957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.787453</v>
+        <v>0.835051</v>
       </c>
       <c r="D3" t="n">
-        <v>0.784816</v>
+        <v>0.816694</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.890709</v>
+        <v>0.899964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.808933</v>
+        <v>0.82457</v>
       </c>
       <c r="D4" t="n">
-        <v>0.811439</v>
+        <v>0.817454</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.870482</v>
+        <v>0.903467</v>
       </c>
       <c r="C5" t="n">
-        <v>0.803889</v>
+        <v>0.83735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.801941</v>
+        <v>0.8277600000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.880367</v>
+        <v>0.882144</v>
       </c>
       <c r="C6" t="n">
-        <v>0.815142</v>
+        <v>0.830663</v>
       </c>
       <c r="D6" t="n">
-        <v>0.826365</v>
+        <v>0.867198</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.895521</v>
+        <v>0.887601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.813706</v>
+        <v>0.8605159999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.800383</v>
+        <v>0.877495</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8917310000000001</v>
+        <v>0.905401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.819918</v>
+        <v>0.851356</v>
       </c>
       <c r="D8" t="n">
-        <v>0.827485</v>
+        <v>0.881285</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.897986</v>
+        <v>0.901087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.837896</v>
+        <v>0.839901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.837732</v>
+        <v>0.894624</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.901621</v>
+        <v>0.943462</v>
       </c>
       <c r="C10" t="n">
-        <v>0.841452</v>
+        <v>0.873702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.836502</v>
+        <v>0.900551</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.893326</v>
+        <v>0.953291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8334510000000001</v>
+        <v>0.845236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.872741</v>
+        <v>0.901473</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.945036</v>
+        <v>0.96334</v>
       </c>
       <c r="C12" t="n">
-        <v>0.865768</v>
+        <v>0.875651</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8759</v>
+        <v>0.941655</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9874849999999999</v>
+        <v>0.962275</v>
       </c>
       <c r="C13" t="n">
-        <v>0.873628</v>
+        <v>0.880984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.924446</v>
+        <v>0.9164330000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.003</v>
+        <v>0.9865080000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8887890000000001</v>
+        <v>0.877844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9179079999999999</v>
+        <v>0.940708</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.00326</v>
+        <v>1.02168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.877744</v>
+        <v>0.887827</v>
       </c>
       <c r="D15" t="n">
-        <v>0.946271</v>
+        <v>0.957152</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.02465</v>
+        <v>1.04398</v>
       </c>
       <c r="C16" t="n">
-        <v>0.909446</v>
+        <v>0.915884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.957091</v>
+        <v>0.971832</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.05951</v>
+        <v>1.04314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.92892</v>
+        <v>0.909577</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9816510000000001</v>
+        <v>0.986043</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.07504</v>
+        <v>1.06936</v>
       </c>
       <c r="C18" t="n">
-        <v>0.925859</v>
+        <v>0.920933</v>
       </c>
       <c r="D18" t="n">
-        <v>1.01124</v>
+        <v>1.00516</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.09078</v>
+        <v>1.08634</v>
       </c>
       <c r="C19" t="n">
-        <v>0.920736</v>
+        <v>0.931</v>
       </c>
       <c r="D19" t="n">
-        <v>1.0141</v>
+        <v>1.03802</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.12061</v>
+        <v>1.09352</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9505980000000001</v>
+        <v>0.968563</v>
       </c>
       <c r="D20" t="n">
-        <v>1.06657</v>
+        <v>1.06348</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.14254</v>
+        <v>1.15578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998505</v>
+        <v>0.993285</v>
       </c>
       <c r="D21" t="n">
-        <v>1.11386</v>
+        <v>1.13242</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.18116</v>
+        <v>1.15987</v>
       </c>
       <c r="C22" t="n">
-        <v>1.02149</v>
+        <v>1.012</v>
       </c>
       <c r="D22" t="n">
-        <v>1.12309</v>
+        <v>1.16486</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.18695</v>
+        <v>1.15199</v>
       </c>
       <c r="C23" t="n">
-        <v>1.03452</v>
+        <v>1.00553</v>
       </c>
       <c r="D23" t="n">
-        <v>1.17935</v>
+        <v>1.15873</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.18673</v>
+        <v>1.18727</v>
       </c>
       <c r="C24" t="n">
-        <v>1.02926</v>
+        <v>1.03556</v>
       </c>
       <c r="D24" t="n">
-        <v>1.19997</v>
+        <v>1.18832</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.24304</v>
+        <v>1.2147</v>
       </c>
       <c r="C25" t="n">
-        <v>1.05518</v>
+        <v>1.05265</v>
       </c>
       <c r="D25" t="n">
-        <v>1.22821</v>
+        <v>1.23533</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.27957</v>
+        <v>1.24902</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0991</v>
+        <v>1.0712</v>
       </c>
       <c r="D26" t="n">
-        <v>1.22919</v>
+        <v>1.2401</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.30217</v>
+        <v>1.27036</v>
       </c>
       <c r="C27" t="n">
-        <v>1.10177</v>
+        <v>1.08933</v>
       </c>
       <c r="D27" t="n">
-        <v>1.26481</v>
+        <v>1.28249</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.33729</v>
+        <v>1.30863</v>
       </c>
       <c r="C28" t="n">
-        <v>1.12291</v>
+        <v>1.11506</v>
       </c>
       <c r="D28" t="n">
-        <v>1.34127</v>
+        <v>1.31385</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.38263</v>
+        <v>1.35349</v>
       </c>
       <c r="C29" t="n">
-        <v>1.16654</v>
+        <v>1.13848</v>
       </c>
       <c r="D29" t="n">
-        <v>1.3752</v>
+        <v>1.33683</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.44133</v>
+        <v>1.38984</v>
       </c>
       <c r="C30" t="n">
-        <v>1.20597</v>
+        <v>1.18859</v>
       </c>
       <c r="D30" t="n">
-        <v>1.3876</v>
+        <v>1.42324</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.43731</v>
+        <v>1.41505</v>
       </c>
       <c r="C31" t="n">
-        <v>1.23574</v>
+        <v>1.22951</v>
       </c>
       <c r="D31" t="n">
-        <v>1.46379</v>
+        <v>1.42735</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.53747</v>
+        <v>1.49677</v>
       </c>
       <c r="C32" t="n">
-        <v>1.26052</v>
+        <v>1.22512</v>
       </c>
       <c r="D32" t="n">
-        <v>1.50689</v>
+        <v>1.5095</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.55301</v>
+        <v>1.52268</v>
       </c>
       <c r="C33" t="n">
-        <v>1.31365</v>
+        <v>1.2714</v>
       </c>
       <c r="D33" t="n">
-        <v>1.54299</v>
+        <v>1.55913</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.58326</v>
+        <v>1.56349</v>
       </c>
       <c r="C34" t="n">
-        <v>1.32338</v>
+        <v>1.30707</v>
       </c>
       <c r="D34" t="n">
-        <v>1.61138</v>
+        <v>1.61942</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.62756</v>
+        <v>1.60352</v>
       </c>
       <c r="C35" t="n">
-        <v>1.39537</v>
+        <v>1.37523</v>
       </c>
       <c r="D35" t="n">
-        <v>1.73435</v>
+        <v>1.72175</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.72784</v>
+        <v>1.69791</v>
       </c>
       <c r="C36" t="n">
-        <v>1.43007</v>
+        <v>1.39921</v>
       </c>
       <c r="D36" t="n">
-        <v>1.81661</v>
+        <v>1.83158</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.76661</v>
+        <v>1.73968</v>
       </c>
       <c r="C37" t="n">
-        <v>1.45983</v>
+        <v>1.46332</v>
       </c>
       <c r="D37" t="n">
-        <v>1.90973</v>
+        <v>1.90532</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.78153</v>
+        <v>1.80496</v>
       </c>
       <c r="C38" t="n">
-        <v>1.54308</v>
+        <v>1.47251</v>
       </c>
       <c r="D38" t="n">
-        <v>1.92752</v>
+        <v>1.91457</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.8392</v>
+        <v>1.85567</v>
       </c>
       <c r="C39" t="n">
-        <v>1.56812</v>
+        <v>1.60288</v>
       </c>
       <c r="D39" t="n">
-        <v>2.03283</v>
+        <v>2.05232</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.90227</v>
+        <v>1.88047</v>
       </c>
       <c r="C40" t="n">
-        <v>1.69494</v>
+        <v>1.65516</v>
       </c>
       <c r="D40" t="n">
-        <v>2.06415</v>
+        <v>2.07937</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.99671</v>
+        <v>1.9375</v>
       </c>
       <c r="C41" t="n">
-        <v>1.71726</v>
+        <v>1.70191</v>
       </c>
       <c r="D41" t="n">
-        <v>2.13033</v>
+        <v>2.16465</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.00793</v>
+        <v>2.04421</v>
       </c>
       <c r="C42" t="n">
-        <v>1.81106</v>
+        <v>1.77708</v>
       </c>
       <c r="D42" t="n">
-        <v>2.21535</v>
+        <v>2.21915</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.07328</v>
+        <v>2.05226</v>
       </c>
       <c r="C43" t="n">
-        <v>1.82335</v>
+        <v>1.81054</v>
       </c>
       <c r="D43" t="n">
-        <v>2.25887</v>
+        <v>2.29841</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.13727</v>
+        <v>2.12489</v>
       </c>
       <c r="C44" t="n">
-        <v>1.90998</v>
+        <v>1.87039</v>
       </c>
       <c r="D44" t="n">
-        <v>2.32543</v>
+        <v>2.28193</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.16594</v>
+        <v>2.16346</v>
       </c>
       <c r="C45" t="n">
-        <v>1.96463</v>
+        <v>1.95343</v>
       </c>
       <c r="D45" t="n">
-        <v>2.38008</v>
+        <v>2.36242</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.2245</v>
+        <v>2.25483</v>
       </c>
       <c r="C46" t="n">
-        <v>2.04887</v>
+        <v>2.02759</v>
       </c>
       <c r="D46" t="n">
-        <v>2.49315</v>
+        <v>2.46605</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.22722</v>
+        <v>2.2754</v>
       </c>
       <c r="C47" t="n">
-        <v>2.13415</v>
+        <v>2.0835</v>
       </c>
       <c r="D47" t="n">
-        <v>2.54842</v>
+        <v>2.57224</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.31511</v>
+        <v>2.30888</v>
       </c>
       <c r="C48" t="n">
-        <v>2.15664</v>
+        <v>2.13144</v>
       </c>
       <c r="D48" t="n">
-        <v>2.5782</v>
+        <v>2.53488</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.39285</v>
+        <v>2.33614</v>
       </c>
       <c r="C49" t="n">
-        <v>2.17901</v>
+        <v>2.18153</v>
       </c>
       <c r="D49" t="n">
-        <v>2.67029</v>
+        <v>2.61485</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.43737</v>
+        <v>2.38007</v>
       </c>
       <c r="C50" t="n">
-        <v>2.28212</v>
+        <v>2.21551</v>
       </c>
       <c r="D50" t="n">
-        <v>2.75062</v>
+        <v>2.69373</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.49132</v>
+        <v>2.42943</v>
       </c>
       <c r="C51" t="n">
-        <v>2.35333</v>
+        <v>2.30147</v>
       </c>
       <c r="D51" t="n">
-        <v>2.84202</v>
+        <v>2.72171</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.46975</v>
+        <v>2.45361</v>
       </c>
       <c r="C52" t="n">
-        <v>2.35942</v>
+        <v>2.32357</v>
       </c>
       <c r="D52" t="n">
-        <v>2.84638</v>
+        <v>2.80971</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.54065</v>
+        <v>2.48215</v>
       </c>
       <c r="C53" t="n">
-        <v>2.4317</v>
+        <v>2.363</v>
       </c>
       <c r="D53" t="n">
-        <v>2.86445</v>
+        <v>2.90358</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.5564</v>
+        <v>2.56129</v>
       </c>
       <c r="C54" t="n">
-        <v>2.45025</v>
+        <v>2.41166</v>
       </c>
       <c r="D54" t="n">
-        <v>2.95782</v>
+        <v>2.86207</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.59203</v>
+        <v>2.54794</v>
       </c>
       <c r="C55" t="n">
-        <v>2.49284</v>
+        <v>2.4386</v>
       </c>
       <c r="D55" t="n">
-        <v>2.9694</v>
+        <v>2.96635</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>2.61775</v>
+        <v>2.64527</v>
       </c>
       <c r="C56" t="n">
-        <v>2.51179</v>
+        <v>2.46889</v>
       </c>
       <c r="D56" t="n">
-        <v>3.00799</v>
+        <v>2.98898</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>2.65963</v>
+        <v>2.65616</v>
       </c>
       <c r="C57" t="n">
-        <v>2.54665</v>
+        <v>2.52163</v>
       </c>
       <c r="D57" t="n">
-        <v>3.03242</v>
+        <v>3.0212</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>2.71728</v>
+        <v>2.66741</v>
       </c>
       <c r="C58" t="n">
-        <v>2.61202</v>
+        <v>2.54098</v>
       </c>
       <c r="D58" t="n">
-        <v>3.09676</v>
+        <v>2.9821</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>2.736</v>
+        <v>2.72607</v>
       </c>
       <c r="C59" t="n">
-        <v>2.62891</v>
+        <v>2.65582</v>
       </c>
       <c r="D59" t="n">
-        <v>3.19791</v>
+        <v>3.08186</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>2.79167</v>
+        <v>2.75187</v>
       </c>
       <c r="C60" t="n">
-        <v>2.60555</v>
+        <v>2.68517</v>
       </c>
       <c r="D60" t="n">
-        <v>3.1507</v>
+        <v>3.15819</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>2.84156</v>
+        <v>2.79449</v>
       </c>
       <c r="C61" t="n">
-        <v>2.70177</v>
+        <v>2.60456</v>
       </c>
       <c r="D61" t="n">
-        <v>3.21683</v>
+        <v>3.12714</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>2.8565</v>
+        <v>2.77856</v>
       </c>
       <c r="C62" t="n">
-        <v>2.74126</v>
+        <v>2.75859</v>
       </c>
       <c r="D62" t="n">
-        <v>3.29693</v>
+        <v>3.13825</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.86892</v>
+        <v>2.84545</v>
       </c>
       <c r="C63" t="n">
-        <v>2.80306</v>
+        <v>2.73228</v>
       </c>
       <c r="D63" t="n">
-        <v>3.28822</v>
+        <v>3.20785</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.91591</v>
+        <v>2.89474</v>
       </c>
       <c r="C64" t="n">
-        <v>2.82849</v>
+        <v>2.7953</v>
       </c>
       <c r="D64" t="n">
-        <v>3.33954</v>
+        <v>3.24837</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.99192</v>
+        <v>2.8564</v>
       </c>
       <c r="C65" t="n">
-        <v>2.85928</v>
+        <v>2.81129</v>
       </c>
       <c r="D65" t="n">
-        <v>3.38207</v>
+        <v>3.32244</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>3.01606</v>
+        <v>2.91725</v>
       </c>
       <c r="C66" t="n">
-        <v>2.89872</v>
+        <v>2.79977</v>
       </c>
       <c r="D66" t="n">
-        <v>3.45812</v>
+        <v>3.28382</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>3.00625</v>
+        <v>2.93552</v>
       </c>
       <c r="C67" t="n">
-        <v>2.89916</v>
+        <v>2.83373</v>
       </c>
       <c r="D67" t="n">
-        <v>3.4467</v>
+        <v>3.28581</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.01153</v>
+        <v>3.02182</v>
       </c>
       <c r="C68" t="n">
-        <v>2.94176</v>
+        <v>2.86495</v>
       </c>
       <c r="D68" t="n">
-        <v>3.45361</v>
+        <v>3.44187</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.09112</v>
+        <v>3.06611</v>
       </c>
       <c r="C69" t="n">
-        <v>2.93187</v>
+        <v>2.91438</v>
       </c>
       <c r="D69" t="n">
-        <v>3.40608</v>
+        <v>3.38573</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.11995</v>
+        <v>3.06668</v>
       </c>
       <c r="C70" t="n">
-        <v>3.00455</v>
+        <v>2.94488</v>
       </c>
       <c r="D70" t="n">
-        <v>3.48342</v>
+        <v>3.46437</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.17269</v>
+        <v>3.07769</v>
       </c>
       <c r="C71" t="n">
-        <v>3.05663</v>
+        <v>2.95611</v>
       </c>
       <c r="D71" t="n">
-        <v>3.58714</v>
+        <v>3.51798</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.20816</v>
+        <v>3.12455</v>
       </c>
       <c r="C72" t="n">
-        <v>3.01799</v>
+        <v>2.96084</v>
       </c>
       <c r="D72" t="n">
-        <v>3.60289</v>
+        <v>3.5491</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.27928</v>
+        <v>3.19871</v>
       </c>
       <c r="C73" t="n">
-        <v>3.0611</v>
+        <v>3.02091</v>
       </c>
       <c r="D73" t="n">
-        <v>3.62225</v>
+        <v>3.5454</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.3361</v>
+        <v>3.24769</v>
       </c>
       <c r="C74" t="n">
-        <v>3.0714</v>
+        <v>3.0852</v>
       </c>
       <c r="D74" t="n">
-        <v>3.65685</v>
+        <v>3.56124</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.296</v>
+        <v>3.23396</v>
       </c>
       <c r="C75" t="n">
-        <v>3.05823</v>
+        <v>3.05971</v>
       </c>
       <c r="D75" t="n">
-        <v>3.62228</v>
+        <v>3.58741</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.35387</v>
+        <v>3.27363</v>
       </c>
       <c r="C76" t="n">
-        <v>3.12606</v>
+        <v>3.08905</v>
       </c>
       <c r="D76" t="n">
-        <v>3.69354</v>
+        <v>3.69212</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.37497</v>
+        <v>3.31665</v>
       </c>
       <c r="C77" t="n">
-        <v>3.16505</v>
+        <v>3.09109</v>
       </c>
       <c r="D77" t="n">
-        <v>3.71603</v>
+        <v>3.72147</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.43877</v>
+        <v>3.3994</v>
       </c>
       <c r="C78" t="n">
-        <v>3.23211</v>
+        <v>3.20701</v>
       </c>
       <c r="D78" t="n">
-        <v>3.81213</v>
+        <v>3.81126</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.43217</v>
+        <v>3.42322</v>
       </c>
       <c r="C79" t="n">
-        <v>3.22693</v>
+        <v>3.18719</v>
       </c>
       <c r="D79" t="n">
-        <v>3.82732</v>
+        <v>3.90251</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.50076</v>
+        <v>3.39136</v>
       </c>
       <c r="C80" t="n">
-        <v>3.30932</v>
+        <v>3.21224</v>
       </c>
       <c r="D80" t="n">
-        <v>3.91952</v>
+        <v>3.90142</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.61975</v>
+        <v>3.48204</v>
       </c>
       <c r="C81" t="n">
-        <v>3.271</v>
+        <v>3.26532</v>
       </c>
       <c r="D81" t="n">
-        <v>3.92234</v>
+        <v>3.9352</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.58918</v>
+        <v>3.48457</v>
       </c>
       <c r="C82" t="n">
-        <v>3.35174</v>
+        <v>3.29803</v>
       </c>
       <c r="D82" t="n">
-        <v>4.01875</v>
+        <v>4.0065</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.55586</v>
+        <v>3.56995</v>
       </c>
       <c r="C83" t="n">
-        <v>3.32914</v>
+        <v>3.31518</v>
       </c>
       <c r="D83" t="n">
-        <v>3.93323</v>
+        <v>4.05462</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.64134</v>
+        <v>3.64769</v>
       </c>
       <c r="C84" t="n">
-        <v>3.46075</v>
+        <v>3.35646</v>
       </c>
       <c r="D84" t="n">
-        <v>4.07406</v>
+        <v>4.02798</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.73758</v>
+        <v>3.60973</v>
       </c>
       <c r="C85" t="n">
-        <v>3.4235</v>
+        <v>3.43222</v>
       </c>
       <c r="D85" t="n">
-        <v>4.08527</v>
+        <v>4.099</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.85002</v>
+        <v>3.65166</v>
       </c>
       <c r="C86" t="n">
-        <v>3.47969</v>
+        <v>3.44535</v>
       </c>
       <c r="D86" t="n">
-        <v>4.2181</v>
+        <v>4.1781</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.75594</v>
+        <v>3.79948</v>
       </c>
       <c r="C87" t="n">
-        <v>3.42496</v>
+        <v>3.48639</v>
       </c>
       <c r="D87" t="n">
-        <v>4.26636</v>
+        <v>4.19286</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.95891</v>
+        <v>3.82473</v>
       </c>
       <c r="C88" t="n">
-        <v>3.55785</v>
+        <v>3.46843</v>
       </c>
       <c r="D88" t="n">
-        <v>4.19801</v>
+        <v>4.29542</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>3.78845</v>
+        <v>3.88195</v>
       </c>
       <c r="C89" t="n">
-        <v>3.49393</v>
+        <v>3.60337</v>
       </c>
       <c r="D89" t="n">
-        <v>4.27815</v>
+        <v>4.27711</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.01297</v>
+        <v>3.96119</v>
       </c>
       <c r="C90" t="n">
-        <v>3.5804</v>
+        <v>3.68658</v>
       </c>
       <c r="D90" t="n">
-        <v>4.25187</v>
+        <v>4.38838</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.96337</v>
+        <v>3.90012</v>
       </c>
       <c r="C91" t="n">
-        <v>3.59748</v>
+        <v>3.73634</v>
       </c>
       <c r="D91" t="n">
-        <v>4.19562</v>
+        <v>4.36614</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>3.9747</v>
+        <v>4.10087</v>
       </c>
       <c r="C92" t="n">
-        <v>3.57827</v>
+        <v>3.79685</v>
       </c>
       <c r="D92" t="n">
-        <v>4.39989</v>
+        <v>4.62707</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.05608</v>
+        <v>4.14733</v>
       </c>
       <c r="C93" t="n">
-        <v>3.74092</v>
+        <v>3.81585</v>
       </c>
       <c r="D93" t="n">
-        <v>4.50638</v>
+        <v>4.58875</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.17679</v>
+        <v>4.17666</v>
       </c>
       <c r="C94" t="n">
-        <v>3.76759</v>
+        <v>3.91542</v>
       </c>
       <c r="D94" t="n">
-        <v>4.52394</v>
+        <v>4.6133</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.22761</v>
+        <v>4.13476</v>
       </c>
       <c r="C95" t="n">
-        <v>3.96603</v>
+        <v>3.88035</v>
       </c>
       <c r="D95" t="n">
-        <v>4.69789</v>
+        <v>4.53255</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.38002</v>
+        <v>4.36364</v>
       </c>
       <c r="C96" t="n">
-        <v>3.971</v>
+        <v>3.88164</v>
       </c>
       <c r="D96" t="n">
-        <v>4.85341</v>
+        <v>4.66011</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.44999</v>
+        <v>4.27337</v>
       </c>
       <c r="C97" t="n">
-        <v>4.02561</v>
+        <v>3.92546</v>
       </c>
       <c r="D97" t="n">
-        <v>4.83173</v>
+        <v>4.73303</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.6079</v>
+        <v>4.44419</v>
       </c>
       <c r="C98" t="n">
-        <v>4.2304</v>
+        <v>4.01427</v>
       </c>
       <c r="D98" t="n">
-        <v>5.032</v>
+        <v>4.91398</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.70502</v>
+        <v>4.56157</v>
       </c>
       <c r="C99" t="n">
-        <v>4.27431</v>
+        <v>4.06721</v>
       </c>
       <c r="D99" t="n">
-        <v>5.09861</v>
+        <v>5.12404</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.85817</v>
+        <v>4.60952</v>
       </c>
       <c r="C100" t="n">
-        <v>4.31201</v>
+        <v>4.2112</v>
       </c>
       <c r="D100" t="n">
-        <v>5.11649</v>
+        <v>5.05105</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.99087</v>
+        <v>4.83989</v>
       </c>
       <c r="C101" t="n">
-        <v>4.38554</v>
+        <v>4.28677</v>
       </c>
       <c r="D101" t="n">
-        <v>5.22119</v>
+        <v>5.09212</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.00121</v>
+        <v>4.69176</v>
       </c>
       <c r="C102" t="n">
-        <v>4.45437</v>
+        <v>4.43099</v>
       </c>
       <c r="D102" t="n">
-        <v>5.29805</v>
+        <v>5.22318</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>5.10201</v>
+        <v>4.95955</v>
       </c>
       <c r="C103" t="n">
-        <v>4.54673</v>
+        <v>4.45275</v>
       </c>
       <c r="D103" t="n">
-        <v>5.32292</v>
+        <v>5.29107</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.22233</v>
+        <v>5.16673</v>
       </c>
       <c r="C104" t="n">
-        <v>4.65741</v>
+        <v>4.60834</v>
       </c>
       <c r="D104" t="n">
-        <v>5.4466</v>
+        <v>5.4839</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.3247</v>
+        <v>5.12246</v>
       </c>
       <c r="C105" t="n">
-        <v>4.64204</v>
+        <v>4.55236</v>
       </c>
       <c r="D105" t="n">
-        <v>5.63855</v>
+        <v>5.50925</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.43996</v>
+        <v>5.27545</v>
       </c>
       <c r="C106" t="n">
-        <v>4.67783</v>
+        <v>4.6979</v>
       </c>
       <c r="D106" t="n">
-        <v>5.56996</v>
+        <v>5.57646</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.56116</v>
+        <v>5.27832</v>
       </c>
       <c r="C107" t="n">
-        <v>4.84918</v>
+        <v>4.7291</v>
       </c>
       <c r="D107" t="n">
-        <v>5.68236</v>
+        <v>5.74681</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.59491</v>
+        <v>5.3423</v>
       </c>
       <c r="C108" t="n">
-        <v>4.82899</v>
+        <v>4.79161</v>
       </c>
       <c r="D108" t="n">
-        <v>5.91004</v>
+        <v>5.81255</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.70369</v>
+        <v>5.56836</v>
       </c>
       <c r="C109" t="n">
-        <v>4.98281</v>
+        <v>4.88724</v>
       </c>
       <c r="D109" t="n">
-        <v>6.16139</v>
+        <v>5.86535</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.71955</v>
+        <v>5.76309</v>
       </c>
       <c r="C110" t="n">
-        <v>5.13576</v>
+        <v>5.13629</v>
       </c>
       <c r="D110" t="n">
-        <v>6.1551</v>
+        <v>6.21741</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.0658</v>
+        <v>5.79965</v>
       </c>
       <c r="C111" t="n">
-        <v>5.39848</v>
+        <v>5.16265</v>
       </c>
       <c r="D111" t="n">
-        <v>6.35842</v>
+        <v>6.19594</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>5.97749</v>
+        <v>6.00237</v>
       </c>
       <c r="C112" t="n">
-        <v>5.35762</v>
+        <v>5.15863</v>
       </c>
       <c r="D112" t="n">
-        <v>6.38737</v>
+        <v>6.22611</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.13783</v>
+        <v>5.98687</v>
       </c>
       <c r="C113" t="n">
-        <v>5.29269</v>
+        <v>5.24075</v>
       </c>
       <c r="D113" t="n">
-        <v>6.43779</v>
+        <v>6.40154</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.27024</v>
+        <v>6.08712</v>
       </c>
       <c r="C114" t="n">
-        <v>5.50252</v>
+        <v>5.37033</v>
       </c>
       <c r="D114" t="n">
-        <v>6.68495</v>
+        <v>6.4424</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.37037</v>
+        <v>6.22157</v>
       </c>
       <c r="C115" t="n">
-        <v>5.47193</v>
+        <v>5.40808</v>
       </c>
       <c r="D115" t="n">
-        <v>6.73437</v>
+        <v>6.5792</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>6.62916</v>
+        <v>6.54737</v>
       </c>
       <c r="C116" t="n">
-        <v>5.7092</v>
+        <v>5.57827</v>
       </c>
       <c r="D116" t="n">
-        <v>7.00711</v>
+        <v>6.82661</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>6.69206</v>
+        <v>6.51149</v>
       </c>
       <c r="C117" t="n">
-        <v>5.68314</v>
+        <v>5.68056</v>
       </c>
       <c r="D117" t="n">
-        <v>6.91343</v>
+        <v>6.86354</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>6.82767</v>
+        <v>6.68344</v>
       </c>
       <c r="C118" t="n">
-        <v>5.90605</v>
+        <v>5.79693</v>
       </c>
       <c r="D118" t="n">
-        <v>7.13642</v>
+        <v>6.98618</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>7.05574</v>
+        <v>6.76391</v>
       </c>
       <c r="C119" t="n">
-        <v>5.93907</v>
+        <v>6.03016</v>
       </c>
       <c r="D119" t="n">
-        <v>7.36935</v>
+        <v>7.18251</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.912069</v>
+        <v>0.880948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.815062</v>
+        <v>0.790538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.811868</v>
+        <v>0.81113</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.913408</v>
+        <v>0.897923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.831212</v>
+        <v>0.828338</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85454</v>
+        <v>0.817368</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.926516</v>
+        <v>0.897394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.83786</v>
+        <v>0.815084</v>
       </c>
       <c r="D4" t="n">
-        <v>0.847793</v>
+        <v>0.846092</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.95478</v>
+        <v>0.918338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.85461</v>
+        <v>0.83525</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8549330000000001</v>
+        <v>0.86048</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.940225</v>
+        <v>0.900413</v>
       </c>
       <c r="C6" t="n">
-        <v>0.85878</v>
+        <v>0.855204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.858421</v>
+        <v>0.860179</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.940229</v>
+        <v>0.906346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.846276</v>
+        <v>0.855856</v>
       </c>
       <c r="D7" t="n">
-        <v>0.879184</v>
+        <v>0.860408</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9509609999999999</v>
+        <v>0.953974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.852537</v>
+        <v>0.859385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.877838</v>
+        <v>0.874683</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.940895</v>
+        <v>0.963296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.845464</v>
+        <v>0.872899</v>
       </c>
       <c r="D9" t="n">
-        <v>0.889402</v>
+        <v>0.906726</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.960716</v>
+        <v>1.01576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.864379</v>
+        <v>0.896201</v>
       </c>
       <c r="D10" t="n">
-        <v>0.918331</v>
+        <v>0.941685</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>1.01502</v>
+        <v>0.990554</v>
       </c>
       <c r="C11" t="n">
-        <v>0.884453</v>
+        <v>0.908921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.921689</v>
+        <v>0.972879</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>1.00046</v>
+        <v>1.00636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.882534</v>
+        <v>0.891936</v>
       </c>
       <c r="D12" t="n">
-        <v>0.963916</v>
+        <v>0.959225</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.03884</v>
+        <v>1.00963</v>
       </c>
       <c r="C13" t="n">
-        <v>0.916319</v>
+        <v>0.905554</v>
       </c>
       <c r="D13" t="n">
-        <v>0.989169</v>
+        <v>0.9776049999999999</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.076</v>
+        <v>1.03787</v>
       </c>
       <c r="C14" t="n">
-        <v>0.942091</v>
+        <v>0.918342</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02255</v>
+        <v>1.02108</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.06487</v>
+        <v>1.0946</v>
       </c>
       <c r="C15" t="n">
-        <v>0.94957</v>
+        <v>0.925833</v>
       </c>
       <c r="D15" t="n">
-        <v>1.00171</v>
+        <v>1.01942</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.11329</v>
+        <v>1.14531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.944763</v>
+        <v>0.936763</v>
       </c>
       <c r="D16" t="n">
-        <v>1.02259</v>
+        <v>1.04233</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.10917</v>
+        <v>1.15008</v>
       </c>
       <c r="C17" t="n">
-        <v>0.955502</v>
+        <v>0.967858</v>
       </c>
       <c r="D17" t="n">
-        <v>1.05194</v>
+        <v>1.07569</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.10766</v>
+        <v>1.13063</v>
       </c>
       <c r="C18" t="n">
-        <v>0.983608</v>
+        <v>0.989542</v>
       </c>
       <c r="D18" t="n">
-        <v>1.06933</v>
+        <v>1.09533</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.16855</v>
+        <v>1.15466</v>
       </c>
       <c r="C19" t="n">
-        <v>0.994186</v>
+        <v>1.01041</v>
       </c>
       <c r="D19" t="n">
-        <v>1.09671</v>
+        <v>1.10517</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.22708</v>
+        <v>1.17196</v>
       </c>
       <c r="C20" t="n">
-        <v>1.01671</v>
+        <v>1.02297</v>
       </c>
       <c r="D20" t="n">
-        <v>1.10527</v>
+        <v>1.14863</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.23708</v>
+        <v>1.19827</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0269</v>
+        <v>1.03311</v>
       </c>
       <c r="D21" t="n">
-        <v>1.14856</v>
+        <v>1.18278</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.25729</v>
+        <v>1.27132</v>
       </c>
       <c r="C22" t="n">
-        <v>1.04438</v>
+        <v>1.05641</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16045</v>
+        <v>1.17037</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.26523</v>
+        <v>1.25928</v>
       </c>
       <c r="C23" t="n">
-        <v>1.06852</v>
+        <v>1.07908</v>
       </c>
       <c r="D23" t="n">
-        <v>1.23083</v>
+        <v>1.22099</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.29811</v>
+        <v>1.31551</v>
       </c>
       <c r="C24" t="n">
-        <v>1.07702</v>
+        <v>1.07919</v>
       </c>
       <c r="D24" t="n">
-        <v>1.25202</v>
+        <v>1.26475</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.32444</v>
+        <v>1.34582</v>
       </c>
       <c r="C25" t="n">
-        <v>1.10496</v>
+        <v>1.13</v>
       </c>
       <c r="D25" t="n">
-        <v>1.24528</v>
+        <v>1.32589</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.36484</v>
+        <v>1.35824</v>
       </c>
       <c r="C26" t="n">
-        <v>1.08842</v>
+        <v>1.0989</v>
       </c>
       <c r="D26" t="n">
-        <v>1.29296</v>
+        <v>1.33474</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.39406</v>
+        <v>1.40786</v>
       </c>
       <c r="C27" t="n">
-        <v>1.15253</v>
+        <v>1.13204</v>
       </c>
       <c r="D27" t="n">
-        <v>1.39309</v>
+        <v>1.34374</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.47854</v>
+        <v>1.47226</v>
       </c>
       <c r="C28" t="n">
-        <v>1.163</v>
+        <v>1.17851</v>
       </c>
       <c r="D28" t="n">
-        <v>1.38353</v>
+        <v>1.41173</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.49694</v>
+        <v>1.48609</v>
       </c>
       <c r="C29" t="n">
-        <v>1.19516</v>
+        <v>1.17486</v>
       </c>
       <c r="D29" t="n">
-        <v>1.43723</v>
+        <v>1.43319</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.52519</v>
+        <v>1.5501</v>
       </c>
       <c r="C30" t="n">
-        <v>1.20975</v>
+        <v>1.22157</v>
       </c>
       <c r="D30" t="n">
-        <v>1.45445</v>
+        <v>1.51881</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.55049</v>
+        <v>1.59241</v>
       </c>
       <c r="C31" t="n">
-        <v>1.24522</v>
+        <v>1.25033</v>
       </c>
       <c r="D31" t="n">
-        <v>1.54567</v>
+        <v>1.51769</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.57618</v>
+        <v>1.61416</v>
       </c>
       <c r="C32" t="n">
-        <v>1.28073</v>
+        <v>1.31939</v>
       </c>
       <c r="D32" t="n">
-        <v>1.56838</v>
+        <v>1.59437</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.65721</v>
+        <v>1.62331</v>
       </c>
       <c r="C33" t="n">
-        <v>1.31941</v>
+        <v>1.31138</v>
       </c>
       <c r="D33" t="n">
-        <v>1.5985</v>
+        <v>1.67749</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.72337</v>
+        <v>1.67652</v>
       </c>
       <c r="C34" t="n">
-        <v>1.38224</v>
+        <v>1.3812</v>
       </c>
       <c r="D34" t="n">
-        <v>1.67951</v>
+        <v>1.74664</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.75332</v>
+        <v>1.79146</v>
       </c>
       <c r="C35" t="n">
-        <v>1.40386</v>
+        <v>1.41011</v>
       </c>
       <c r="D35" t="n">
-        <v>1.73289</v>
+        <v>1.75963</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.825</v>
+        <v>1.82712</v>
       </c>
       <c r="C36" t="n">
-        <v>1.46115</v>
+        <v>1.4909</v>
       </c>
       <c r="D36" t="n">
-        <v>1.80411</v>
+        <v>1.87984</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.93324</v>
+        <v>1.91059</v>
       </c>
       <c r="C37" t="n">
-        <v>1.57029</v>
+        <v>1.54647</v>
       </c>
       <c r="D37" t="n">
-        <v>1.86949</v>
+        <v>1.94056</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.90022</v>
+        <v>1.97742</v>
       </c>
       <c r="C38" t="n">
-        <v>1.60334</v>
+        <v>1.56493</v>
       </c>
       <c r="D38" t="n">
-        <v>2.00401</v>
+        <v>2.03171</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>2.06598</v>
+        <v>2.00466</v>
       </c>
       <c r="C39" t="n">
-        <v>1.6612</v>
+        <v>1.64781</v>
       </c>
       <c r="D39" t="n">
-        <v>2.07847</v>
+        <v>2.12915</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>2.11676</v>
+        <v>2.11073</v>
       </c>
       <c r="C40" t="n">
-        <v>1.69866</v>
+        <v>1.6752</v>
       </c>
       <c r="D40" t="n">
-        <v>2.15992</v>
+        <v>2.1737</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>2.14106</v>
+        <v>2.18803</v>
       </c>
       <c r="C41" t="n">
-        <v>1.72039</v>
+        <v>1.74276</v>
       </c>
       <c r="D41" t="n">
-        <v>2.1924</v>
+        <v>2.22978</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.28449</v>
+        <v>2.19801</v>
       </c>
       <c r="C42" t="n">
-        <v>1.82196</v>
+        <v>1.79795</v>
       </c>
       <c r="D42" t="n">
-        <v>2.3511</v>
+        <v>2.29214</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.32005</v>
+        <v>2.25304</v>
       </c>
       <c r="C43" t="n">
-        <v>1.86098</v>
+        <v>1.85978</v>
       </c>
       <c r="D43" t="n">
-        <v>2.33561</v>
+        <v>2.36993</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.41883</v>
+        <v>2.42561</v>
       </c>
       <c r="C44" t="n">
-        <v>1.99541</v>
+        <v>1.96952</v>
       </c>
       <c r="D44" t="n">
-        <v>2.48096</v>
+        <v>2.45483</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.47275</v>
+        <v>2.45411</v>
       </c>
       <c r="C45" t="n">
-        <v>2.04619</v>
+        <v>2.01017</v>
       </c>
       <c r="D45" t="n">
-        <v>2.55007</v>
+        <v>2.56082</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.53554</v>
+        <v>2.45971</v>
       </c>
       <c r="C46" t="n">
-        <v>2.08974</v>
+        <v>2.12965</v>
       </c>
       <c r="D46" t="n">
-        <v>2.55752</v>
+        <v>2.62369</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.58409</v>
+        <v>2.52975</v>
       </c>
       <c r="C47" t="n">
-        <v>2.1874</v>
+        <v>2.20271</v>
       </c>
       <c r="D47" t="n">
-        <v>2.67767</v>
+        <v>2.66321</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.62168</v>
+        <v>2.57139</v>
       </c>
       <c r="C48" t="n">
-        <v>2.26868</v>
+        <v>2.20197</v>
       </c>
       <c r="D48" t="n">
-        <v>2.75556</v>
+        <v>2.7127</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.67358</v>
+        <v>2.64932</v>
       </c>
       <c r="C49" t="n">
-        <v>2.30882</v>
+        <v>2.32895</v>
       </c>
       <c r="D49" t="n">
-        <v>2.83333</v>
+        <v>2.78225</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.80555</v>
+        <v>2.67916</v>
       </c>
       <c r="C50" t="n">
-        <v>2.3893</v>
+        <v>2.33357</v>
       </c>
       <c r="D50" t="n">
-        <v>2.84598</v>
+        <v>2.88269</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.84218</v>
+        <v>2.77901</v>
       </c>
       <c r="C51" t="n">
-        <v>2.42372</v>
+        <v>2.43353</v>
       </c>
       <c r="D51" t="n">
-        <v>2.9587</v>
+        <v>2.93296</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.87265</v>
+        <v>2.85109</v>
       </c>
       <c r="C52" t="n">
-        <v>2.4836</v>
+        <v>2.46317</v>
       </c>
       <c r="D52" t="n">
-        <v>3.03425</v>
+        <v>3.00401</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.88532</v>
+        <v>2.80949</v>
       </c>
       <c r="C53" t="n">
-        <v>2.62383</v>
+        <v>2.54766</v>
       </c>
       <c r="D53" t="n">
-        <v>3.12496</v>
+        <v>3.00202</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>3.04409</v>
+        <v>2.93514</v>
       </c>
       <c r="C54" t="n">
-        <v>2.66474</v>
+        <v>2.56866</v>
       </c>
       <c r="D54" t="n">
-        <v>3.11023</v>
+        <v>3.08576</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.98518</v>
+        <v>2.97371</v>
       </c>
       <c r="C55" t="n">
-        <v>2.71021</v>
+        <v>2.64302</v>
       </c>
       <c r="D55" t="n">
-        <v>3.17464</v>
+        <v>3.14347</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>3.03528</v>
+        <v>3.07858</v>
       </c>
       <c r="C56" t="n">
-        <v>2.65498</v>
+        <v>2.66101</v>
       </c>
       <c r="D56" t="n">
-        <v>3.24055</v>
+        <v>3.24458</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>3.13105</v>
+        <v>3.0386</v>
       </c>
       <c r="C57" t="n">
-        <v>2.73519</v>
+        <v>2.71951</v>
       </c>
       <c r="D57" t="n">
-        <v>3.31307</v>
+        <v>3.22954</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>3.17884</v>
+        <v>3.21458</v>
       </c>
       <c r="C58" t="n">
-        <v>2.80063</v>
+        <v>2.79221</v>
       </c>
       <c r="D58" t="n">
-        <v>3.31159</v>
+        <v>3.32161</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>3.21759</v>
+        <v>3.22243</v>
       </c>
       <c r="C59" t="n">
-        <v>2.94336</v>
+        <v>2.80761</v>
       </c>
       <c r="D59" t="n">
-        <v>3.34227</v>
+        <v>3.3232</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>3.26633</v>
+        <v>3.23269</v>
       </c>
       <c r="C60" t="n">
-        <v>2.88519</v>
+        <v>2.89599</v>
       </c>
       <c r="D60" t="n">
-        <v>3.4302</v>
+        <v>3.38956</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>3.27611</v>
+        <v>3.30371</v>
       </c>
       <c r="C61" t="n">
-        <v>2.96584</v>
+        <v>2.92798</v>
       </c>
       <c r="D61" t="n">
-        <v>3.58542</v>
+        <v>3.47722</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>3.31937</v>
+        <v>3.29584</v>
       </c>
       <c r="C62" t="n">
-        <v>2.98858</v>
+        <v>2.97046</v>
       </c>
       <c r="D62" t="n">
-        <v>3.49979</v>
+        <v>3.4701</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>3.36132</v>
+        <v>3.3443</v>
       </c>
       <c r="C63" t="n">
-        <v>3.01971</v>
+        <v>2.95458</v>
       </c>
       <c r="D63" t="n">
-        <v>3.57693</v>
+        <v>3.596</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>3.39841</v>
+        <v>3.36943</v>
       </c>
       <c r="C64" t="n">
-        <v>3.06616</v>
+        <v>3.03711</v>
       </c>
       <c r="D64" t="n">
-        <v>3.62381</v>
+        <v>3.60103</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>3.52427</v>
+        <v>3.41073</v>
       </c>
       <c r="C65" t="n">
-        <v>3.13093</v>
+        <v>3.08013</v>
       </c>
       <c r="D65" t="n">
-        <v>3.58496</v>
+        <v>3.69075</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>3.49205</v>
+        <v>3.52946</v>
       </c>
       <c r="C66" t="n">
-        <v>3.14203</v>
+        <v>3.18676</v>
       </c>
       <c r="D66" t="n">
-        <v>3.68616</v>
+        <v>3.67719</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>3.57646</v>
+        <v>3.55479</v>
       </c>
       <c r="C67" t="n">
-        <v>3.16553</v>
+        <v>3.21473</v>
       </c>
       <c r="D67" t="n">
-        <v>3.71927</v>
+        <v>3.6375</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.62163</v>
+        <v>3.51986</v>
       </c>
       <c r="C68" t="n">
-        <v>3.10877</v>
+        <v>3.14598</v>
       </c>
       <c r="D68" t="n">
-        <v>3.76342</v>
+        <v>3.78712</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.6417</v>
+        <v>3.60747</v>
       </c>
       <c r="C69" t="n">
-        <v>3.15504</v>
+        <v>3.16144</v>
       </c>
       <c r="D69" t="n">
-        <v>3.8687</v>
+        <v>3.78692</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.76885</v>
+        <v>3.62844</v>
       </c>
       <c r="C70" t="n">
-        <v>3.21949</v>
+        <v>3.19834</v>
       </c>
       <c r="D70" t="n">
-        <v>3.80357</v>
+        <v>3.95675</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.68783</v>
+        <v>3.68598</v>
       </c>
       <c r="C71" t="n">
-        <v>3.23442</v>
+        <v>3.27533</v>
       </c>
       <c r="D71" t="n">
-        <v>3.9036</v>
+        <v>3.86223</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.78592</v>
+        <v>3.79514</v>
       </c>
       <c r="C72" t="n">
-        <v>3.35389</v>
+        <v>3.28732</v>
       </c>
       <c r="D72" t="n">
-        <v>3.97345</v>
+        <v>3.88805</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.87884</v>
+        <v>3.78855</v>
       </c>
       <c r="C73" t="n">
-        <v>3.40897</v>
+        <v>3.33319</v>
       </c>
       <c r="D73" t="n">
-        <v>4.01361</v>
+        <v>3.97902</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.76557</v>
+        <v>3.8157</v>
       </c>
       <c r="C74" t="n">
-        <v>3.33784</v>
+        <v>3.38716</v>
       </c>
       <c r="D74" t="n">
-        <v>3.99216</v>
+        <v>3.96229</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.87691</v>
+        <v>3.79308</v>
       </c>
       <c r="C75" t="n">
-        <v>3.42726</v>
+        <v>3.35695</v>
       </c>
       <c r="D75" t="n">
-        <v>4.07925</v>
+        <v>4.04719</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.91627</v>
+        <v>3.86586</v>
       </c>
       <c r="C76" t="n">
-        <v>3.56683</v>
+        <v>3.40619</v>
       </c>
       <c r="D76" t="n">
-        <v>4.12138</v>
+        <v>4.04898</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.85655</v>
+        <v>3.86119</v>
       </c>
       <c r="C77" t="n">
-        <v>3.45887</v>
+        <v>3.50879</v>
       </c>
       <c r="D77" t="n">
-        <v>4.05384</v>
+        <v>4.12405</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.87118</v>
+        <v>3.9705</v>
       </c>
       <c r="C78" t="n">
-        <v>3.47783</v>
+        <v>3.49877</v>
       </c>
       <c r="D78" t="n">
-        <v>4.26645</v>
+        <v>4.20029</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.99402</v>
+        <v>4.00058</v>
       </c>
       <c r="C79" t="n">
-        <v>3.44334</v>
+        <v>3.56163</v>
       </c>
       <c r="D79" t="n">
-        <v>4.17907</v>
+        <v>4.2242</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>4.07373</v>
+        <v>3.96685</v>
       </c>
       <c r="C80" t="n">
-        <v>3.56418</v>
+        <v>3.61053</v>
       </c>
       <c r="D80" t="n">
-        <v>4.41393</v>
+        <v>4.22864</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>4.12099</v>
+        <v>4.17769</v>
       </c>
       <c r="C81" t="n">
-        <v>3.58845</v>
+        <v>3.63344</v>
       </c>
       <c r="D81" t="n">
-        <v>4.40034</v>
+        <v>4.35263</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>4.20894</v>
+        <v>4.13905</v>
       </c>
       <c r="C82" t="n">
-        <v>3.7531</v>
+        <v>3.62677</v>
       </c>
       <c r="D82" t="n">
-        <v>4.38437</v>
+        <v>4.46539</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>4.29037</v>
+        <v>4.20293</v>
       </c>
       <c r="C83" t="n">
-        <v>3.57755</v>
+        <v>3.6076</v>
       </c>
       <c r="D83" t="n">
-        <v>4.49393</v>
+        <v>4.36528</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>4.19678</v>
+        <v>4.24395</v>
       </c>
       <c r="C84" t="n">
-        <v>3.6287</v>
+        <v>3.73466</v>
       </c>
       <c r="D84" t="n">
-        <v>4.40686</v>
+        <v>4.39154</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>4.25775</v>
+        <v>4.35523</v>
       </c>
       <c r="C85" t="n">
-        <v>3.78165</v>
+        <v>3.67128</v>
       </c>
       <c r="D85" t="n">
-        <v>4.45402</v>
+        <v>4.45916</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.41354</v>
+        <v>4.4146</v>
       </c>
       <c r="C86" t="n">
-        <v>3.86927</v>
+        <v>3.76374</v>
       </c>
       <c r="D86" t="n">
-        <v>4.58627</v>
+        <v>4.63051</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.39889</v>
+        <v>4.44992</v>
       </c>
       <c r="C87" t="n">
-        <v>3.81419</v>
+        <v>3.82164</v>
       </c>
       <c r="D87" t="n">
-        <v>4.64907</v>
+        <v>4.65346</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.53165</v>
+        <v>4.39255</v>
       </c>
       <c r="C88" t="n">
-        <v>3.82733</v>
+        <v>3.90088</v>
       </c>
       <c r="D88" t="n">
-        <v>4.67995</v>
+        <v>4.60598</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>4.36666</v>
+        <v>4.52487</v>
       </c>
       <c r="C89" t="n">
-        <v>3.78994</v>
+        <v>4.00426</v>
       </c>
       <c r="D89" t="n">
-        <v>4.62337</v>
+        <v>4.80864</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.43445</v>
+        <v>4.51074</v>
       </c>
       <c r="C90" t="n">
-        <v>3.9741</v>
+        <v>4.1326</v>
       </c>
       <c r="D90" t="n">
-        <v>4.80723</v>
+        <v>4.73503</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>4.54765</v>
+        <v>4.579</v>
       </c>
       <c r="C91" t="n">
-        <v>3.94197</v>
+        <v>4.14289</v>
       </c>
       <c r="D91" t="n">
-        <v>4.71749</v>
+        <v>4.89046</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>4.57407</v>
+        <v>4.63991</v>
       </c>
       <c r="C92" t="n">
-        <v>4.04727</v>
+        <v>4.18033</v>
       </c>
       <c r="D92" t="n">
-        <v>4.93879</v>
+        <v>4.89572</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.72495</v>
+        <v>4.8207</v>
       </c>
       <c r="C93" t="n">
-        <v>4.25618</v>
+        <v>4.16342</v>
       </c>
       <c r="D93" t="n">
-        <v>4.95112</v>
+        <v>4.9008</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.91266</v>
+        <v>4.75262</v>
       </c>
       <c r="C94" t="n">
-        <v>4.31443</v>
+        <v>4.24635</v>
       </c>
       <c r="D94" t="n">
-        <v>5.09957</v>
+        <v>5.0181</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.91698</v>
+        <v>4.69353</v>
       </c>
       <c r="C95" t="n">
-        <v>4.53937</v>
+        <v>4.39576</v>
       </c>
       <c r="D95" t="n">
-        <v>5.13929</v>
+        <v>5.07128</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>5.01408</v>
+        <v>4.97662</v>
       </c>
       <c r="C96" t="n">
-        <v>4.51697</v>
+        <v>4.38864</v>
       </c>
       <c r="D96" t="n">
-        <v>5.12169</v>
+        <v>5.12055</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>5.12606</v>
+        <v>4.92874</v>
       </c>
       <c r="C97" t="n">
-        <v>4.32509</v>
+        <v>4.29636</v>
       </c>
       <c r="D97" t="n">
-        <v>5.31817</v>
+        <v>5.23585</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.20307</v>
+        <v>5.11862</v>
       </c>
       <c r="C98" t="n">
-        <v>4.39534</v>
+        <v>4.29279</v>
       </c>
       <c r="D98" t="n">
-        <v>5.2476</v>
+        <v>5.32933</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>5.34046</v>
+        <v>5.30864</v>
       </c>
       <c r="C99" t="n">
-        <v>4.49386</v>
+        <v>4.52001</v>
       </c>
       <c r="D99" t="n">
-        <v>5.39353</v>
+        <v>5.46439</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>5.47352</v>
+        <v>5.26836</v>
       </c>
       <c r="C100" t="n">
-        <v>4.59039</v>
+        <v>4.62521</v>
       </c>
       <c r="D100" t="n">
-        <v>5.40587</v>
+        <v>5.49279</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>5.37262</v>
+        <v>5.39114</v>
       </c>
       <c r="C101" t="n">
-        <v>4.65256</v>
+        <v>4.78911</v>
       </c>
       <c r="D101" t="n">
-        <v>5.50431</v>
+        <v>5.55446</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.46745</v>
+        <v>5.43832</v>
       </c>
       <c r="C102" t="n">
-        <v>4.74799</v>
+        <v>4.69692</v>
       </c>
       <c r="D102" t="n">
-        <v>5.6974</v>
+        <v>5.5569</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>5.49964</v>
+        <v>5.37045</v>
       </c>
       <c r="C103" t="n">
-        <v>4.84762</v>
+        <v>4.84236</v>
       </c>
       <c r="D103" t="n">
-        <v>5.68136</v>
+        <v>5.60211</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.58358</v>
+        <v>5.60848</v>
       </c>
       <c r="C104" t="n">
-        <v>5.01207</v>
+        <v>4.91924</v>
       </c>
       <c r="D104" t="n">
-        <v>5.94212</v>
+        <v>5.84098</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.84974</v>
+        <v>5.61698</v>
       </c>
       <c r="C105" t="n">
-        <v>5.06003</v>
+        <v>5.06291</v>
       </c>
       <c r="D105" t="n">
-        <v>5.88778</v>
+        <v>5.85075</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.84051</v>
+        <v>5.73305</v>
       </c>
       <c r="C106" t="n">
-        <v>5.11756</v>
+        <v>5.17732</v>
       </c>
       <c r="D106" t="n">
-        <v>6.00787</v>
+        <v>6.14997</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>6.11281</v>
+        <v>5.80242</v>
       </c>
       <c r="C107" t="n">
-        <v>5.24192</v>
+        <v>5.15443</v>
       </c>
       <c r="D107" t="n">
-        <v>6.24245</v>
+        <v>6.19992</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>6.09128</v>
+        <v>5.93248</v>
       </c>
       <c r="C108" t="n">
-        <v>5.36578</v>
+        <v>5.26115</v>
       </c>
       <c r="D108" t="n">
-        <v>6.30856</v>
+        <v>6.2662</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.15631</v>
+        <v>6.03065</v>
       </c>
       <c r="C109" t="n">
-        <v>5.53451</v>
+        <v>5.38973</v>
       </c>
       <c r="D109" t="n">
-        <v>6.478</v>
+        <v>6.34208</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.42055</v>
+        <v>6.25205</v>
       </c>
       <c r="C110" t="n">
-        <v>5.5617</v>
+        <v>5.60739</v>
       </c>
       <c r="D110" t="n">
-        <v>6.57388</v>
+        <v>6.50659</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.55546</v>
+        <v>6.42102</v>
       </c>
       <c r="C111" t="n">
-        <v>5.55351</v>
+        <v>5.48281</v>
       </c>
       <c r="D111" t="n">
-        <v>6.74143</v>
+        <v>6.57183</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.64339</v>
+        <v>6.45292</v>
       </c>
       <c r="C112" t="n">
-        <v>5.61771</v>
+        <v>5.63356</v>
       </c>
       <c r="D112" t="n">
-        <v>6.70306</v>
+        <v>6.68515</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.78477</v>
+        <v>6.64515</v>
       </c>
       <c r="C113" t="n">
-        <v>5.71093</v>
+        <v>5.64283</v>
       </c>
       <c r="D113" t="n">
-        <v>6.85094</v>
+        <v>6.82356</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.82471</v>
+        <v>6.82857</v>
       </c>
       <c r="C114" t="n">
-        <v>5.80889</v>
+        <v>5.79221</v>
       </c>
       <c r="D114" t="n">
-        <v>6.88345</v>
+        <v>6.84431</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.99138</v>
+        <v>6.9996</v>
       </c>
       <c r="C115" t="n">
-        <v>5.86867</v>
+        <v>6.08613</v>
       </c>
       <c r="D115" t="n">
-        <v>7.0776</v>
+        <v>6.96917</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>7.20758</v>
+        <v>7.0868</v>
       </c>
       <c r="C116" t="n">
-        <v>6.01037</v>
+        <v>5.92413</v>
       </c>
       <c r="D116" t="n">
-        <v>7.1794</v>
+        <v>7.12387</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>7.20307</v>
+        <v>7.24462</v>
       </c>
       <c r="C117" t="n">
-        <v>6.20901</v>
+        <v>6.30176</v>
       </c>
       <c r="D117" t="n">
-        <v>7.35346</v>
+        <v>7.28202</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>7.29702</v>
+        <v>7.20186</v>
       </c>
       <c r="C118" t="n">
-        <v>6.27419</v>
+        <v>6.22712</v>
       </c>
       <c r="D118" t="n">
-        <v>7.40188</v>
+        <v>7.44511</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>7.41283</v>
+        <v>7.33734</v>
       </c>
       <c r="C119" t="n">
-        <v>6.47174</v>
+        <v>6.40714</v>
       </c>
       <c r="D119" t="n">
-        <v>7.56371</v>
+        <v>7.542</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered erasure by key.xlsx
+++ b/vs/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.862244</v>
+        <v>0.84484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.841461</v>
+        <v>0.8209959999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.862217</v>
+        <v>0.8054</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.911957</v>
+        <v>0.868677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.835051</v>
+        <v>0.824017</v>
       </c>
       <c r="D3" t="n">
-        <v>0.816694</v>
+        <v>0.816775</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.899964</v>
+        <v>0.875481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.82457</v>
+        <v>0.840789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.817454</v>
+        <v>0.817168</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.903467</v>
+        <v>0.893738</v>
       </c>
       <c r="C5" t="n">
-        <v>0.83735</v>
+        <v>0.84215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8277600000000001</v>
+        <v>0.82378</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.882144</v>
+        <v>0.925243</v>
       </c>
       <c r="C6" t="n">
-        <v>0.830663</v>
+        <v>0.831039</v>
       </c>
       <c r="D6" t="n">
-        <v>0.867198</v>
+        <v>0.8260110000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.887601</v>
+        <v>0.876011</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8605159999999999</v>
+        <v>0.846492</v>
       </c>
       <c r="D7" t="n">
-        <v>0.877495</v>
+        <v>0.843565</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.905401</v>
+        <v>0.904517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.851356</v>
+        <v>0.864256</v>
       </c>
       <c r="D8" t="n">
-        <v>0.881285</v>
+        <v>0.866746</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.901087</v>
+        <v>0.932899</v>
       </c>
       <c r="C9" t="n">
-        <v>0.839901</v>
+        <v>0.8751640000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.894624</v>
+        <v>0.861783</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.943462</v>
+        <v>0.9145990000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.873702</v>
+        <v>0.8332580000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.900551</v>
+        <v>0.863713</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.953291</v>
+        <v>0.942928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.845236</v>
+        <v>0.857618</v>
       </c>
       <c r="D11" t="n">
-        <v>0.901473</v>
+        <v>0.874636</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.96334</v>
+        <v>0.989619</v>
       </c>
       <c r="C12" t="n">
-        <v>0.875651</v>
+        <v>0.887203</v>
       </c>
       <c r="D12" t="n">
-        <v>0.941655</v>
+        <v>0.926531</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.962275</v>
+        <v>0.985225</v>
       </c>
       <c r="C13" t="n">
-        <v>0.880984</v>
+        <v>0.888665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9164330000000001</v>
+        <v>0.927727</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9865080000000001</v>
+        <v>0.98505</v>
       </c>
       <c r="C14" t="n">
-        <v>0.877844</v>
+        <v>0.895371</v>
       </c>
       <c r="D14" t="n">
-        <v>0.940708</v>
+        <v>0.930684</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.02168</v>
+        <v>1.00366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.887827</v>
+        <v>0.891976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.957152</v>
+        <v>0.944529</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.04398</v>
+        <v>1.03643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.915884</v>
+        <v>0.923854</v>
       </c>
       <c r="D16" t="n">
-        <v>0.971832</v>
+        <v>0.968267</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.04314</v>
+        <v>1.04657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.909577</v>
+        <v>0.931209</v>
       </c>
       <c r="D17" t="n">
-        <v>0.986043</v>
+        <v>0.993441</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.06936</v>
+        <v>1.04672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.920933</v>
+        <v>0.925706</v>
       </c>
       <c r="D18" t="n">
-        <v>1.00516</v>
+        <v>1.02288</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.08634</v>
+        <v>1.07417</v>
       </c>
       <c r="C19" t="n">
-        <v>0.931</v>
+        <v>0.962078</v>
       </c>
       <c r="D19" t="n">
-        <v>1.03802</v>
+        <v>1.06008</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.09352</v>
+        <v>1.09388</v>
       </c>
       <c r="C20" t="n">
-        <v>0.968563</v>
+        <v>0.947533</v>
       </c>
       <c r="D20" t="n">
-        <v>1.06348</v>
+        <v>1.05432</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.15578</v>
+        <v>1.10897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.993285</v>
+        <v>1.01155</v>
       </c>
       <c r="D21" t="n">
-        <v>1.13242</v>
+        <v>1.13241</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.15987</v>
+        <v>1.16326</v>
       </c>
       <c r="C22" t="n">
-        <v>1.012</v>
+        <v>1.01389</v>
       </c>
       <c r="D22" t="n">
-        <v>1.16486</v>
+        <v>1.15462</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.15199</v>
+        <v>1.15592</v>
       </c>
       <c r="C23" t="n">
-        <v>1.00553</v>
+        <v>1.03357</v>
       </c>
       <c r="D23" t="n">
-        <v>1.15873</v>
+        <v>1.16139</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.18727</v>
+        <v>1.22663</v>
       </c>
       <c r="C24" t="n">
-        <v>1.03556</v>
+        <v>1.03281</v>
       </c>
       <c r="D24" t="n">
-        <v>1.18832</v>
+        <v>1.23141</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.2147</v>
+        <v>1.23398</v>
       </c>
       <c r="C25" t="n">
-        <v>1.05265</v>
+        <v>1.04126</v>
       </c>
       <c r="D25" t="n">
-        <v>1.23533</v>
+        <v>1.26151</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.24902</v>
+        <v>1.31128</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0712</v>
+        <v>1.09292</v>
       </c>
       <c r="D26" t="n">
-        <v>1.2401</v>
+        <v>1.26585</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.27036</v>
+        <v>1.31462</v>
       </c>
       <c r="C27" t="n">
-        <v>1.08933</v>
+        <v>1.10756</v>
       </c>
       <c r="D27" t="n">
-        <v>1.28249</v>
+        <v>1.28795</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.30863</v>
+        <v>1.32151</v>
       </c>
       <c r="C28" t="n">
-        <v>1.11506</v>
+        <v>1.14194</v>
       </c>
       <c r="D28" t="n">
-        <v>1.31385</v>
+        <v>1.35142</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.35349</v>
+        <v>1.4124</v>
       </c>
       <c r="C29" t="n">
-        <v>1.13848</v>
+        <v>1.16711</v>
       </c>
       <c r="D29" t="n">
-        <v>1.33683</v>
+        <v>1.35564</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.38984</v>
+        <v>1.40054</v>
       </c>
       <c r="C30" t="n">
-        <v>1.18859</v>
+        <v>1.173</v>
       </c>
       <c r="D30" t="n">
-        <v>1.42324</v>
+        <v>1.42739</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.41505</v>
+        <v>1.46678</v>
       </c>
       <c r="C31" t="n">
-        <v>1.22951</v>
+        <v>1.23078</v>
       </c>
       <c r="D31" t="n">
-        <v>1.42735</v>
+        <v>1.45906</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.49677</v>
+        <v>1.48134</v>
       </c>
       <c r="C32" t="n">
-        <v>1.22512</v>
+        <v>1.26468</v>
       </c>
       <c r="D32" t="n">
-        <v>1.5095</v>
+        <v>1.53248</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.52268</v>
+        <v>1.57022</v>
       </c>
       <c r="C33" t="n">
-        <v>1.2714</v>
+        <v>1.30853</v>
       </c>
       <c r="D33" t="n">
-        <v>1.55913</v>
+        <v>1.56743</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.56349</v>
+        <v>1.60721</v>
       </c>
       <c r="C34" t="n">
-        <v>1.30707</v>
+        <v>1.34149</v>
       </c>
       <c r="D34" t="n">
-        <v>1.61942</v>
+        <v>1.64895</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.60352</v>
+        <v>1.66977</v>
       </c>
       <c r="C35" t="n">
-        <v>1.37523</v>
+        <v>1.38413</v>
       </c>
       <c r="D35" t="n">
-        <v>1.72175</v>
+        <v>1.76509</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.69791</v>
+        <v>1.68974</v>
       </c>
       <c r="C36" t="n">
-        <v>1.39921</v>
+        <v>1.39996</v>
       </c>
       <c r="D36" t="n">
-        <v>1.83158</v>
+        <v>1.81443</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.73968</v>
+        <v>1.72565</v>
       </c>
       <c r="C37" t="n">
-        <v>1.46332</v>
+        <v>1.45003</v>
       </c>
       <c r="D37" t="n">
-        <v>1.90532</v>
+        <v>1.8925</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.80496</v>
+        <v>1.81057</v>
       </c>
       <c r="C38" t="n">
-        <v>1.47251</v>
+        <v>1.53042</v>
       </c>
       <c r="D38" t="n">
-        <v>1.91457</v>
+        <v>1.97614</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>1.85567</v>
+        <v>1.83406</v>
       </c>
       <c r="C39" t="n">
-        <v>1.60288</v>
+        <v>1.61919</v>
       </c>
       <c r="D39" t="n">
-        <v>2.05232</v>
+        <v>2.0231</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.88047</v>
+        <v>1.89438</v>
       </c>
       <c r="C40" t="n">
-        <v>1.65516</v>
+        <v>1.67912</v>
       </c>
       <c r="D40" t="n">
-        <v>2.07937</v>
+        <v>2.05941</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.9375</v>
+        <v>1.95898</v>
       </c>
       <c r="C41" t="n">
-        <v>1.70191</v>
+        <v>1.7216</v>
       </c>
       <c r="D41" t="n">
-        <v>2.16465</v>
+        <v>2.13391</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.04421</v>
+        <v>2.00929</v>
       </c>
       <c r="C42" t="n">
-        <v>1.77708</v>
+        <v>1.78126</v>
       </c>
       <c r="D42" t="n">
-        <v>2.21915</v>
+        <v>2.25182</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.05226</v>
+        <v>2.07467</v>
       </c>
       <c r="C43" t="n">
-        <v>1.81054</v>
+        <v>1.81126</v>
       </c>
       <c r="D43" t="n">
-        <v>2.29841</v>
+        <v>2.28516</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.12489</v>
+        <v>2.13951</v>
       </c>
       <c r="C44" t="n">
-        <v>1.87039</v>
+        <v>1.85996</v>
       </c>
       <c r="D44" t="n">
-        <v>2.28193</v>
+        <v>2.3173</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.16346</v>
+        <v>2.15718</v>
       </c>
       <c r="C45" t="n">
-        <v>1.95343</v>
+        <v>1.91604</v>
       </c>
       <c r="D45" t="n">
-        <v>2.36242</v>
+        <v>2.35917</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.25483</v>
+        <v>2.20936</v>
       </c>
       <c r="C46" t="n">
-        <v>2.02759</v>
+        <v>1.99232</v>
       </c>
       <c r="D46" t="n">
-        <v>2.46605</v>
+        <v>2.44789</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.2754</v>
+        <v>2.25376</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0835</v>
+        <v>2.04656</v>
       </c>
       <c r="D47" t="n">
-        <v>2.57224</v>
+        <v>2.51666</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.30888</v>
+        <v>2.29975</v>
       </c>
       <c r="C48" t="n">
-        <v>2.13144</v>
+        <v>2.10115</v>
       </c>
       <c r="D48" t="n">
-        <v>2.53488</v>
+        <v>2.54231</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.33614</v>
+        <v>2.32431</v>
       </c>
       <c r="C49" t="n">
-        <v>2.18153</v>
+        <v>2.1731</v>
       </c>
       <c r="D49" t="n">
-        <v>2.61485</v>
+        <v>2.60974</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.38007</v>
+        <v>2.42871</v>
       </c>
       <c r="C50" t="n">
-        <v>2.21551</v>
+        <v>2.24059</v>
       </c>
       <c r="D50" t="n">
-        <v>2.69373</v>
+        <v>2.7207</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.42943</v>
+        <v>2.45371</v>
       </c>
       <c r="C51" t="n">
-        <v>2.30147</v>
+        <v>2.30293</v>
       </c>
       <c r="D51" t="n">
-        <v>2.72171</v>
+        <v>2.75646</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.45361</v>
+        <v>2.48812</v>
       </c>
       <c r="C52" t="n">
-        <v>2.32357</v>
+        <v>2.31074</v>
       </c>
       <c r="D52" t="n">
-        <v>2.80971</v>
+        <v>2.76135</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.48215</v>
+        <v>2.48223</v>
       </c>
       <c r="C53" t="n">
-        <v>2.363</v>
+        <v>2.39613</v>
       </c>
       <c r="D53" t="n">
-        <v>2.90358</v>
+        <v>2.79532</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.56129</v>
+        <v>2.53052</v>
       </c>
       <c r="C54" t="n">
-        <v>2.41166</v>
+        <v>2.43407</v>
       </c>
       <c r="D54" t="n">
-        <v>2.86207</v>
+        <v>2.81608</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.54794</v>
+        <v>2.61044</v>
       </c>
       <c r="C55" t="n">
-        <v>2.4386</v>
+        <v>2.44033</v>
       </c>
       <c r="D55" t="n">
-        <v>2.96635</v>
+        <v>2.95115</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>2.64527</v>
+        <v>2.64986</v>
       </c>
       <c r="C56" t="n">
-        <v>2.46889</v>
+        <v>2.46481</v>
       </c>
       <c r="D56" t="n">
-        <v>2.98898</v>
+        <v>2.96737</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>2.65616</v>
+        <v>2.672</v>
       </c>
       <c r="C57" t="n">
-        <v>2.52163</v>
+        <v>2.53796</v>
       </c>
       <c r="D57" t="n">
-        <v>3.0212</v>
+        <v>2.98022</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>2.66741</v>
+        <v>2.71212</v>
       </c>
       <c r="C58" t="n">
-        <v>2.54098</v>
+        <v>2.5639</v>
       </c>
       <c r="D58" t="n">
-        <v>2.9821</v>
+        <v>3.05812</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>2.72607</v>
+        <v>2.71372</v>
       </c>
       <c r="C59" t="n">
-        <v>2.65582</v>
+        <v>2.58401</v>
       </c>
       <c r="D59" t="n">
-        <v>3.08186</v>
+        <v>3.08821</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>2.75187</v>
+        <v>2.76438</v>
       </c>
       <c r="C60" t="n">
-        <v>2.68517</v>
+        <v>2.59274</v>
       </c>
       <c r="D60" t="n">
-        <v>3.15819</v>
+        <v>3.11815</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>2.79449</v>
+        <v>2.75954</v>
       </c>
       <c r="C61" t="n">
-        <v>2.60456</v>
+        <v>2.68768</v>
       </c>
       <c r="D61" t="n">
-        <v>3.12714</v>
+        <v>3.13479</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>2.77856</v>
+        <v>2.82339</v>
       </c>
       <c r="C62" t="n">
-        <v>2.75859</v>
+        <v>2.71807</v>
       </c>
       <c r="D62" t="n">
-        <v>3.13825</v>
+        <v>3.13055</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>2.84545</v>
+        <v>2.82749</v>
       </c>
       <c r="C63" t="n">
-        <v>2.73228</v>
+        <v>2.73122</v>
       </c>
       <c r="D63" t="n">
-        <v>3.20785</v>
+        <v>3.25832</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>2.89474</v>
+        <v>2.86838</v>
       </c>
       <c r="C64" t="n">
-        <v>2.7953</v>
+        <v>2.73016</v>
       </c>
       <c r="D64" t="n">
-        <v>3.24837</v>
+        <v>3.30123</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>2.8564</v>
+        <v>2.88929</v>
       </c>
       <c r="C65" t="n">
-        <v>2.81129</v>
+        <v>2.82064</v>
       </c>
       <c r="D65" t="n">
-        <v>3.32244</v>
+        <v>3.29731</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>2.91725</v>
+        <v>2.9217</v>
       </c>
       <c r="C66" t="n">
-        <v>2.79977</v>
+        <v>2.82345</v>
       </c>
       <c r="D66" t="n">
-        <v>3.28382</v>
+        <v>3.37545</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>2.93552</v>
+        <v>2.98545</v>
       </c>
       <c r="C67" t="n">
-        <v>2.83373</v>
+        <v>2.823</v>
       </c>
       <c r="D67" t="n">
-        <v>3.28581</v>
+        <v>3.35461</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.02182</v>
+        <v>2.98294</v>
       </c>
       <c r="C68" t="n">
-        <v>2.86495</v>
+        <v>2.86154</v>
       </c>
       <c r="D68" t="n">
-        <v>3.44187</v>
+        <v>3.36637</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.06611</v>
+        <v>3.01672</v>
       </c>
       <c r="C69" t="n">
-        <v>2.91438</v>
+        <v>2.89279</v>
       </c>
       <c r="D69" t="n">
-        <v>3.38573</v>
+        <v>3.39512</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.06668</v>
+        <v>3.09324</v>
       </c>
       <c r="C70" t="n">
-        <v>2.94488</v>
+        <v>2.98609</v>
       </c>
       <c r="D70" t="n">
-        <v>3.46437</v>
+        <v>3.53348</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.07769</v>
+        <v>3.11344</v>
       </c>
       <c r="C71" t="n">
-        <v>2.95611</v>
+        <v>2.96182</v>
       </c>
       <c r="D71" t="n">
-        <v>3.51798</v>
+        <v>3.57528</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.12455</v>
+        <v>3.12766</v>
       </c>
       <c r="C72" t="n">
-        <v>2.96084</v>
+        <v>2.9976</v>
       </c>
       <c r="D72" t="n">
-        <v>3.5491</v>
+        <v>3.55855</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.19871</v>
+        <v>3.21483</v>
       </c>
       <c r="C73" t="n">
-        <v>3.02091</v>
+        <v>3.05</v>
       </c>
       <c r="D73" t="n">
-        <v>3.5454</v>
+        <v>3.56514</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.24769</v>
+        <v>3.20153</v>
       </c>
       <c r="C74" t="n">
-        <v>3.0852</v>
+        <v>3.04228</v>
       </c>
       <c r="D74" t="n">
-        <v>3.56124</v>
+        <v>3.62638</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.23396</v>
+        <v>3.21672</v>
       </c>
       <c r="C75" t="n">
-        <v>3.05971</v>
+        <v>3.05816</v>
       </c>
       <c r="D75" t="n">
-        <v>3.58741</v>
+        <v>3.6706</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.27363</v>
+        <v>3.30267</v>
       </c>
       <c r="C76" t="n">
-        <v>3.08905</v>
+        <v>3.08482</v>
       </c>
       <c r="D76" t="n">
-        <v>3.69212</v>
+        <v>3.61705</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.31665</v>
+        <v>3.28569</v>
       </c>
       <c r="C77" t="n">
-        <v>3.09109</v>
+        <v>3.13169</v>
       </c>
       <c r="D77" t="n">
-        <v>3.72147</v>
+        <v>3.70536</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.3994</v>
+        <v>3.32488</v>
       </c>
       <c r="C78" t="n">
-        <v>3.20701</v>
+        <v>3.14386</v>
       </c>
       <c r="D78" t="n">
-        <v>3.81126</v>
+        <v>3.78059</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>3.42322</v>
+        <v>3.4753</v>
       </c>
       <c r="C79" t="n">
-        <v>3.18719</v>
+        <v>3.20708</v>
       </c>
       <c r="D79" t="n">
-        <v>3.90251</v>
+        <v>3.80029</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.39136</v>
+        <v>3.44141</v>
       </c>
       <c r="C80" t="n">
-        <v>3.21224</v>
+        <v>3.31253</v>
       </c>
       <c r="D80" t="n">
-        <v>3.90142</v>
+        <v>3.88446</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>3.48204</v>
+        <v>3.51677</v>
       </c>
       <c r="C81" t="n">
-        <v>3.26532</v>
+        <v>3.27222</v>
       </c>
       <c r="D81" t="n">
-        <v>3.9352</v>
+        <v>3.95612</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>3.48457</v>
+        <v>3.55009</v>
       </c>
       <c r="C82" t="n">
-        <v>3.29803</v>
+        <v>3.36885</v>
       </c>
       <c r="D82" t="n">
-        <v>4.0065</v>
+        <v>3.93441</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>3.56995</v>
+        <v>3.56457</v>
       </c>
       <c r="C83" t="n">
-        <v>3.31518</v>
+        <v>3.38912</v>
       </c>
       <c r="D83" t="n">
-        <v>4.05462</v>
+        <v>4.02394</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>3.64769</v>
+        <v>3.62503</v>
       </c>
       <c r="C84" t="n">
-        <v>3.35646</v>
+        <v>3.43737</v>
       </c>
       <c r="D84" t="n">
-        <v>4.02798</v>
+        <v>4.07329</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>3.60973</v>
+        <v>3.68194</v>
       </c>
       <c r="C85" t="n">
-        <v>3.43222</v>
+        <v>3.46005</v>
       </c>
       <c r="D85" t="n">
-        <v>4.099</v>
+        <v>4.03809</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>3.65166</v>
+        <v>3.74161</v>
       </c>
       <c r="C86" t="n">
-        <v>3.44535</v>
+        <v>3.4716</v>
       </c>
       <c r="D86" t="n">
-        <v>4.1781</v>
+        <v>4.097</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>3.79948</v>
+        <v>3.85685</v>
       </c>
       <c r="C87" t="n">
-        <v>3.48639</v>
+        <v>3.59794</v>
       </c>
       <c r="D87" t="n">
-        <v>4.19286</v>
+        <v>4.16376</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>3.82473</v>
+        <v>3.87948</v>
       </c>
       <c r="C88" t="n">
-        <v>3.46843</v>
+        <v>3.58335</v>
       </c>
       <c r="D88" t="n">
-        <v>4.29542</v>
+        <v>4.34094</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>3.88195</v>
+        <v>3.92767</v>
       </c>
       <c r="C89" t="n">
-        <v>3.60337</v>
+        <v>3.68494</v>
       </c>
       <c r="D89" t="n">
-        <v>4.27711</v>
+        <v>4.31331</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>3.96119</v>
+        <v>3.93107</v>
       </c>
       <c r="C90" t="n">
-        <v>3.68658</v>
+        <v>3.69744</v>
       </c>
       <c r="D90" t="n">
-        <v>4.38838</v>
+        <v>4.38383</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>3.90012</v>
+        <v>4.10249</v>
       </c>
       <c r="C91" t="n">
-        <v>3.73634</v>
+        <v>3.72182</v>
       </c>
       <c r="D91" t="n">
-        <v>4.36614</v>
+        <v>4.48844</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>4.10087</v>
+        <v>4.09355</v>
       </c>
       <c r="C92" t="n">
-        <v>3.79685</v>
+        <v>3.77673</v>
       </c>
       <c r="D92" t="n">
-        <v>4.62707</v>
+        <v>4.50502</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.14733</v>
+        <v>4.10977</v>
       </c>
       <c r="C93" t="n">
-        <v>3.81585</v>
+        <v>3.8792</v>
       </c>
       <c r="D93" t="n">
-        <v>4.58875</v>
+        <v>4.58153</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.17666</v>
+        <v>4.23714</v>
       </c>
       <c r="C94" t="n">
-        <v>3.91542</v>
+        <v>3.92535</v>
       </c>
       <c r="D94" t="n">
-        <v>4.6133</v>
+        <v>4.64965</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.13476</v>
+        <v>4.24267</v>
       </c>
       <c r="C95" t="n">
-        <v>3.88035</v>
+        <v>3.92954</v>
       </c>
       <c r="D95" t="n">
-        <v>4.53255</v>
+        <v>4.67995</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.36364</v>
+        <v>4.32528</v>
       </c>
       <c r="C96" t="n">
-        <v>3.88164</v>
+        <v>3.96807</v>
       </c>
       <c r="D96" t="n">
-        <v>4.66011</v>
+        <v>4.72894</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.27337</v>
+        <v>4.34608</v>
       </c>
       <c r="C97" t="n">
-        <v>3.92546</v>
+        <v>3.83444</v>
       </c>
       <c r="D97" t="n">
-        <v>4.73303</v>
+        <v>4.7593</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>4.44419</v>
+        <v>4.57499</v>
       </c>
       <c r="C98" t="n">
-        <v>4.01427</v>
+        <v>4.21717</v>
       </c>
       <c r="D98" t="n">
-        <v>4.91398</v>
+        <v>5.08668</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>4.56157</v>
+        <v>4.86019</v>
       </c>
       <c r="C99" t="n">
-        <v>4.06721</v>
+        <v>4.26506</v>
       </c>
       <c r="D99" t="n">
-        <v>5.12404</v>
+        <v>4.97891</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>4.60952</v>
+        <v>4.64467</v>
       </c>
       <c r="C100" t="n">
-        <v>4.2112</v>
+        <v>4.35779</v>
       </c>
       <c r="D100" t="n">
-        <v>5.05105</v>
+        <v>5.05959</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>4.83989</v>
+        <v>4.79391</v>
       </c>
       <c r="C101" t="n">
-        <v>4.28677</v>
+        <v>4.41746</v>
       </c>
       <c r="D101" t="n">
-        <v>5.09212</v>
+        <v>5.24648</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>4.69176</v>
+        <v>4.90444</v>
       </c>
       <c r="C102" t="n">
-        <v>4.43099</v>
+        <v>4.49562</v>
       </c>
       <c r="D102" t="n">
-        <v>5.22318</v>
+        <v>5.2717</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>4.95955</v>
+        <v>4.98363</v>
       </c>
       <c r="C103" t="n">
-        <v>4.45275</v>
+        <v>4.474</v>
       </c>
       <c r="D103" t="n">
-        <v>5.29107</v>
+        <v>5.35579</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.16673</v>
+        <v>5.11047</v>
       </c>
       <c r="C104" t="n">
-        <v>4.60834</v>
+        <v>4.62794</v>
       </c>
       <c r="D104" t="n">
-        <v>5.4839</v>
+        <v>5.60074</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.12246</v>
+        <v>5.28916</v>
       </c>
       <c r="C105" t="n">
-        <v>4.55236</v>
+        <v>4.68676</v>
       </c>
       <c r="D105" t="n">
-        <v>5.50925</v>
+        <v>5.68005</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.27545</v>
+        <v>5.35157</v>
       </c>
       <c r="C106" t="n">
-        <v>4.6979</v>
+        <v>4.66533</v>
       </c>
       <c r="D106" t="n">
-        <v>5.57646</v>
+        <v>5.55706</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.27832</v>
+        <v>5.42266</v>
       </c>
       <c r="C107" t="n">
-        <v>4.7291</v>
+        <v>5.03289</v>
       </c>
       <c r="D107" t="n">
-        <v>5.74681</v>
+        <v>5.79724</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.3423</v>
+        <v>5.4907</v>
       </c>
       <c r="C108" t="n">
-        <v>4.79161</v>
+        <v>4.99613</v>
       </c>
       <c r="D108" t="n">
-        <v>5.81255</v>
+        <v>6.07162</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>5.56836</v>
+        <v>5.6372</v>
       </c>
       <c r="C109" t="n">
-        <v>4.88724</v>
+        <v>5.0648</v>
       </c>
       <c r="D109" t="n">
-        <v>5.86535</v>
+        <v>6.15603</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>5.76309</v>
+        <v>5.85844</v>
       </c>
       <c r="C110" t="n">
-        <v>5.13629</v>
+        <v>5.13893</v>
       </c>
       <c r="D110" t="n">
-        <v>6.21741</v>
+        <v>6.25519</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>5.79965</v>
+        <v>5.88404</v>
       </c>
       <c r="C111" t="n">
-        <v>5.16265</v>
+        <v>5.1685</v>
       </c>
       <c r="D111" t="n">
-        <v>6.19594</v>
+        <v>6.35227</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.00237</v>
+        <v>5.96742</v>
       </c>
       <c r="C112" t="n">
-        <v>5.15863</v>
+        <v>5.33975</v>
       </c>
       <c r="D112" t="n">
-        <v>6.22611</v>
+        <v>6.42042</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>5.98687</v>
+        <v>6.01527</v>
       </c>
       <c r="C113" t="n">
-        <v>5.24075</v>
+        <v>5.37609</v>
       </c>
       <c r="D113" t="n">
-        <v>6.40154</v>
+        <v>6.36631</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.08712</v>
+        <v>6.11949</v>
       </c>
       <c r="C114" t="n">
-        <v>5.37033</v>
+        <v>5.40385</v>
       </c>
       <c r="D114" t="n">
-        <v>6.4424</v>
+        <v>6.53178</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.22157</v>
+        <v>6.41187</v>
       </c>
       <c r="C115" t="n">
-        <v>5.40808</v>
+        <v>5.62412</v>
       </c>
       <c r="D115" t="n">
-        <v>6.5792</v>
+        <v>6.7339</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>6.54737</v>
+        <v>6.46387</v>
       </c>
       <c r="C116" t="n">
-        <v>5.57827</v>
+        <v>5.63288</v>
       </c>
       <c r="D116" t="n">
-        <v>6.82661</v>
+        <v>6.76917</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>6.51149</v>
+        <v>6.55894</v>
       </c>
       <c r="C117" t="n">
-        <v>5.68056</v>
+        <v>5.68562</v>
       </c>
       <c r="D117" t="n">
-        <v>6.86354</v>
+        <v>6.89663</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>6.68344</v>
+        <v>6.6288</v>
       </c>
       <c r="C118" t="n">
-        <v>5.79693</v>
+        <v>5.80626</v>
       </c>
       <c r="D118" t="n">
-        <v>6.98618</v>
+        <v>6.97568</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>6.76391</v>
+        <v>6.90183</v>
       </c>
       <c r="C119" t="n">
-        <v>6.03016</v>
+        <v>5.92285</v>
       </c>
       <c r="D119" t="n">
-        <v>7.18251</v>
+        <v>7.25458</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.880948</v>
+        <v>0.914351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.790538</v>
+        <v>0.828179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.81113</v>
+        <v>0.838727</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.897923</v>
+        <v>0.915049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.828338</v>
+        <v>0.808345</v>
       </c>
       <c r="D3" t="n">
-        <v>0.817368</v>
+        <v>0.867388</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.897394</v>
+        <v>0.926574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.815084</v>
+        <v>0.833097</v>
       </c>
       <c r="D4" t="n">
-        <v>0.846092</v>
+        <v>0.876687</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.918338</v>
+        <v>0.93494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.83525</v>
+        <v>0.82238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86048</v>
+        <v>0.868942</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.900413</v>
+        <v>0.914261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.855204</v>
+        <v>0.840002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.860179</v>
+        <v>0.8771139999999999</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.906346</v>
+        <v>0.911154</v>
       </c>
       <c r="C7" t="n">
-        <v>0.855856</v>
+        <v>0.833471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.860408</v>
+        <v>0.890871</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.953974</v>
+        <v>0.922665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.859385</v>
+        <v>0.85137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.874683</v>
+        <v>0.89816</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.963296</v>
+        <v>0.939184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.872899</v>
+        <v>0.853132</v>
       </c>
       <c r="D9" t="n">
-        <v>0.906726</v>
+        <v>0.918171</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>1.01576</v>
+        <v>0.971334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.896201</v>
+        <v>0.865146</v>
       </c>
       <c r="D10" t="n">
-        <v>0.941685</v>
+        <v>0.927274</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.990554</v>
+        <v>0.975177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.908921</v>
+        <v>0.856384</v>
       </c>
       <c r="D11" t="n">
-        <v>0.972879</v>
+        <v>0.9410539999999999</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>1.00636</v>
+        <v>1.03286</v>
       </c>
       <c r="C12" t="n">
-        <v>0.891936</v>
+        <v>0.886479</v>
       </c>
       <c r="D12" t="n">
-        <v>0.959225</v>
+        <v>0.957515</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>1.00963</v>
+        <v>1.04348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.905554</v>
+        <v>0.898166</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9776049999999999</v>
+        <v>0.978629</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.03787</v>
+        <v>1.05005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.918342</v>
+        <v>0.90785</v>
       </c>
       <c r="D14" t="n">
-        <v>1.02108</v>
+        <v>0.995686</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.0946</v>
+        <v>1.08049</v>
       </c>
       <c r="C15" t="n">
-        <v>0.925833</v>
+        <v>0.934391</v>
       </c>
       <c r="D15" t="n">
-        <v>1.01942</v>
+        <v>1.0271</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.14531</v>
+        <v>1.08709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.936763</v>
+        <v>0.93885</v>
       </c>
       <c r="D16" t="n">
-        <v>1.04233</v>
+        <v>1.04278</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.15008</v>
+        <v>1.10519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.967858</v>
+        <v>0.939063</v>
       </c>
       <c r="D17" t="n">
-        <v>1.07569</v>
+        <v>1.07404</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.13063</v>
+        <v>1.11004</v>
       </c>
       <c r="C18" t="n">
-        <v>0.989542</v>
+        <v>0.972926</v>
       </c>
       <c r="D18" t="n">
-        <v>1.09533</v>
+        <v>1.0939</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.15466</v>
+        <v>1.15825</v>
       </c>
       <c r="C19" t="n">
-        <v>1.01041</v>
+        <v>1.00518</v>
       </c>
       <c r="D19" t="n">
-        <v>1.10517</v>
+        <v>1.12739</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.17196</v>
+        <v>1.21573</v>
       </c>
       <c r="C20" t="n">
-        <v>1.02297</v>
+        <v>0.99437</v>
       </c>
       <c r="D20" t="n">
-        <v>1.14863</v>
+        <v>1.13379</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.19827</v>
+        <v>1.19979</v>
       </c>
       <c r="C21" t="n">
-        <v>1.03311</v>
+        <v>1.03543</v>
       </c>
       <c r="D21" t="n">
-        <v>1.18278</v>
+        <v>1.15945</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.27132</v>
+        <v>1.2506</v>
       </c>
       <c r="C22" t="n">
-        <v>1.05641</v>
+        <v>1.04479</v>
       </c>
       <c r="D22" t="n">
-        <v>1.17037</v>
+        <v>1.21967</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.25928</v>
+        <v>1.25859</v>
       </c>
       <c r="C23" t="n">
-        <v>1.07908</v>
+        <v>1.06679</v>
       </c>
       <c r="D23" t="n">
-        <v>1.22099</v>
+        <v>1.21385</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.31551</v>
+        <v>1.29654</v>
       </c>
       <c r="C24" t="n">
-        <v>1.07919</v>
+        <v>1.11795</v>
       </c>
       <c r="D24" t="n">
-        <v>1.26475</v>
+        <v>1.28298</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.34582</v>
+        <v>1.34883</v>
       </c>
       <c r="C25" t="n">
-        <v>1.13</v>
+        <v>1.10824</v>
       </c>
       <c r="D25" t="n">
-        <v>1.32589</v>
+        <v>1.30634</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.35824</v>
+        <v>1.37806</v>
       </c>
       <c r="C26" t="n">
-        <v>1.0989</v>
+        <v>1.12449</v>
       </c>
       <c r="D26" t="n">
-        <v>1.33474</v>
+        <v>1.32715</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.40786</v>
+        <v>1.41342</v>
       </c>
       <c r="C27" t="n">
-        <v>1.13204</v>
+        <v>1.14176</v>
       </c>
       <c r="D27" t="n">
-        <v>1.34374</v>
+        <v>1.33909</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.47226</v>
+        <v>1.43647</v>
       </c>
       <c r="C28" t="n">
-        <v>1.17851</v>
+        <v>1.16066</v>
       </c>
       <c r="D28" t="n">
-        <v>1.41173</v>
+        <v>1.38781</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.48609</v>
+        <v>1.51247</v>
       </c>
       <c r="C29" t="n">
-        <v>1.17486</v>
+        <v>1.18549</v>
       </c>
       <c r="D29" t="n">
-        <v>1.43319</v>
+        <v>1.43119</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.5501</v>
+        <v>1.56166</v>
       </c>
       <c r="C30" t="n">
-        <v>1.22157</v>
+        <v>1.23455</v>
       </c>
       <c r="D30" t="n">
-        <v>1.51881</v>
+        <v>1.50023</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.59241</v>
+        <v>1.58166</v>
       </c>
       <c r="C31" t="n">
-        <v>1.25033</v>
+        <v>1.26515</v>
       </c>
       <c r="D31" t="n">
-        <v>1.51769</v>
+        <v>1.5278</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.61416</v>
+        <v>1.57295</v>
       </c>
       <c r="C32" t="n">
-        <v>1.31939</v>
+        <v>1.31341</v>
       </c>
       <c r="D32" t="n">
-        <v>1.59437</v>
+        <v>1.57762</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.62331</v>
+        <v>1.64031</v>
       </c>
       <c r="C33" t="n">
-        <v>1.31138</v>
+        <v>1.35411</v>
       </c>
       <c r="D33" t="n">
-        <v>1.67749</v>
+        <v>1.6472</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.67652</v>
+        <v>1.7396</v>
       </c>
       <c r="C34" t="n">
-        <v>1.3812</v>
+        <v>1.40117</v>
       </c>
       <c r="D34" t="n">
-        <v>1.74664</v>
+        <v>1.6907</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.79146</v>
+        <v>1.79774</v>
       </c>
       <c r="C35" t="n">
-        <v>1.41011</v>
+        <v>1.41355</v>
       </c>
       <c r="D35" t="n">
-        <v>1.75963</v>
+        <v>1.79804</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.82712</v>
+        <v>1.79905</v>
       </c>
       <c r="C36" t="n">
-        <v>1.4909</v>
+        <v>1.47381</v>
       </c>
       <c r="D36" t="n">
-        <v>1.87984</v>
+        <v>1.82596</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.91059</v>
+        <v>1.84511</v>
       </c>
       <c r="C37" t="n">
-        <v>1.54647</v>
+        <v>1.5532</v>
       </c>
       <c r="D37" t="n">
-        <v>1.94056</v>
+        <v>1.93255</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>1.97742</v>
+        <v>1.93213</v>
       </c>
       <c r="C38" t="n">
-        <v>1.56493</v>
+        <v>1.59672</v>
       </c>
       <c r="D38" t="n">
-        <v>2.03171</v>
+        <v>1.99919</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>2.00466</v>
+        <v>2.00191</v>
       </c>
       <c r="C39" t="n">
-        <v>1.64781</v>
+        <v>1.64238</v>
       </c>
       <c r="D39" t="n">
-        <v>2.12915</v>
+        <v>2.04465</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>2.11073</v>
+        <v>2.03945</v>
       </c>
       <c r="C40" t="n">
-        <v>1.6752</v>
+        <v>1.64871</v>
       </c>
       <c r="D40" t="n">
-        <v>2.1737</v>
+        <v>2.13683</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>2.18803</v>
+        <v>2.15064</v>
       </c>
       <c r="C41" t="n">
-        <v>1.74276</v>
+        <v>1.71728</v>
       </c>
       <c r="D41" t="n">
-        <v>2.22978</v>
+        <v>2.23891</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>2.19801</v>
+        <v>2.23753</v>
       </c>
       <c r="C42" t="n">
-        <v>1.79795</v>
+        <v>1.78195</v>
       </c>
       <c r="D42" t="n">
-        <v>2.29214</v>
+        <v>2.35751</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>2.25304</v>
+        <v>2.29345</v>
       </c>
       <c r="C43" t="n">
-        <v>1.85978</v>
+        <v>1.89971</v>
       </c>
       <c r="D43" t="n">
-        <v>2.36993</v>
+        <v>2.36829</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>2.42561</v>
+        <v>2.36865</v>
       </c>
       <c r="C44" t="n">
-        <v>1.96952</v>
+        <v>1.92037</v>
       </c>
       <c r="D44" t="n">
-        <v>2.45483</v>
+        <v>2.44911</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>2.45411</v>
+        <v>2.50675</v>
       </c>
       <c r="C45" t="n">
-        <v>2.01017</v>
+        <v>2.06458</v>
       </c>
       <c r="D45" t="n">
-        <v>2.56082</v>
+        <v>2.60227</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>2.45971</v>
+        <v>2.55027</v>
       </c>
       <c r="C46" t="n">
-        <v>2.12965</v>
+        <v>2.07832</v>
       </c>
       <c r="D46" t="n">
-        <v>2.62369</v>
+        <v>2.63356</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>2.52975</v>
+        <v>2.59528</v>
       </c>
       <c r="C47" t="n">
-        <v>2.20271</v>
+        <v>2.17947</v>
       </c>
       <c r="D47" t="n">
-        <v>2.66321</v>
+        <v>2.67445</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>2.57139</v>
+        <v>2.59556</v>
       </c>
       <c r="C48" t="n">
-        <v>2.20197</v>
+        <v>2.25048</v>
       </c>
       <c r="D48" t="n">
-        <v>2.7127</v>
+        <v>2.76374</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>2.64932</v>
+        <v>2.64447</v>
       </c>
       <c r="C49" t="n">
-        <v>2.32895</v>
+        <v>2.30948</v>
       </c>
       <c r="D49" t="n">
-        <v>2.78225</v>
+        <v>2.78557</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>2.67916</v>
+        <v>2.7286</v>
       </c>
       <c r="C50" t="n">
-        <v>2.33357</v>
+        <v>2.34638</v>
       </c>
       <c r="D50" t="n">
-        <v>2.88269</v>
+        <v>2.92517</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>2.77901</v>
+        <v>2.77073</v>
       </c>
       <c r="C51" t="n">
-        <v>2.43353</v>
+        <v>2.47328</v>
       </c>
       <c r="D51" t="n">
-        <v>2.93296</v>
+        <v>2.95129</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>2.85109</v>
+        <v>2.81612</v>
       </c>
       <c r="C52" t="n">
-        <v>2.46317</v>
+        <v>2.50066</v>
       </c>
       <c r="D52" t="n">
-        <v>3.00401</v>
+        <v>2.9698</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>2.80949</v>
+        <v>2.86275</v>
       </c>
       <c r="C53" t="n">
-        <v>2.54766</v>
+        <v>2.55495</v>
       </c>
       <c r="D53" t="n">
-        <v>3.00202</v>
+        <v>3.03957</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>2.93514</v>
+        <v>3.00951</v>
       </c>
       <c r="C54" t="n">
-        <v>2.56866</v>
+        <v>2.60172</v>
       </c>
       <c r="D54" t="n">
-        <v>3.08576</v>
+        <v>3.12994</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>2.97371</v>
+        <v>3.04848</v>
       </c>
       <c r="C55" t="n">
-        <v>2.64302</v>
+        <v>2.6332</v>
       </c>
       <c r="D55" t="n">
-        <v>3.14347</v>
+        <v>3.20327</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>3.07858</v>
+        <v>3.11057</v>
       </c>
       <c r="C56" t="n">
-        <v>2.66101</v>
+        <v>2.67598</v>
       </c>
       <c r="D56" t="n">
-        <v>3.24458</v>
+        <v>3.1836</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0386</v>
+        <v>3.15908</v>
       </c>
       <c r="C57" t="n">
-        <v>2.71951</v>
+        <v>2.76356</v>
       </c>
       <c r="D57" t="n">
-        <v>3.22954</v>
+        <v>3.26292</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>3.21458</v>
+        <v>3.17494</v>
       </c>
       <c r="C58" t="n">
-        <v>2.79221</v>
+        <v>2.77926</v>
       </c>
       <c r="D58" t="n">
-        <v>3.32161</v>
+        <v>3.34755</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>3.22243</v>
+        <v>3.23019</v>
       </c>
       <c r="C59" t="n">
-        <v>2.80761</v>
+        <v>2.83628</v>
       </c>
       <c r="D59" t="n">
-        <v>3.3232</v>
+        <v>3.37869</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>3.23269</v>
+        <v>3.25019</v>
       </c>
       <c r="C60" t="n">
-        <v>2.89599</v>
+        <v>2.87277</v>
       </c>
       <c r="D60" t="n">
-        <v>3.38956</v>
+        <v>3.46393</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>3.30371</v>
+        <v>3.30084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.92798</v>
+        <v>2.93037</v>
       </c>
       <c r="D61" t="n">
-        <v>3.47722</v>
+        <v>3.43769</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>3.29584</v>
+        <v>3.27708</v>
       </c>
       <c r="C62" t="n">
-        <v>2.97046</v>
+        <v>3.0555</v>
       </c>
       <c r="D62" t="n">
-        <v>3.4701</v>
+        <v>3.51757</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>3.3443</v>
+        <v>3.3518</v>
       </c>
       <c r="C63" t="n">
-        <v>2.95458</v>
+        <v>3.04695</v>
       </c>
       <c r="D63" t="n">
-        <v>3.596</v>
+        <v>3.56461</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>3.36943</v>
+        <v>3.45656</v>
       </c>
       <c r="C64" t="n">
-        <v>3.03711</v>
+        <v>3.07255</v>
       </c>
       <c r="D64" t="n">
-        <v>3.60103</v>
+        <v>3.62701</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>3.41073</v>
+        <v>3.44938</v>
       </c>
       <c r="C65" t="n">
-        <v>3.08013</v>
+        <v>3.1699</v>
       </c>
       <c r="D65" t="n">
-        <v>3.69075</v>
+        <v>3.66376</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>3.52946</v>
+        <v>3.49223</v>
       </c>
       <c r="C66" t="n">
-        <v>3.18676</v>
+        <v>3.11426</v>
       </c>
       <c r="D66" t="n">
-        <v>3.67719</v>
+        <v>3.74849</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>3.55479</v>
+        <v>3.63042</v>
       </c>
       <c r="C67" t="n">
-        <v>3.21473</v>
+        <v>3.22959</v>
       </c>
       <c r="D67" t="n">
-        <v>3.6375</v>
+        <v>3.74069</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>3.51986</v>
+        <v>3.61315</v>
       </c>
       <c r="C68" t="n">
-        <v>3.14598</v>
+        <v>3.13638</v>
       </c>
       <c r="D68" t="n">
-        <v>3.78712</v>
+        <v>3.72579</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>3.60747</v>
+        <v>3.63036</v>
       </c>
       <c r="C69" t="n">
-        <v>3.16144</v>
+        <v>3.23969</v>
       </c>
       <c r="D69" t="n">
-        <v>3.78692</v>
+        <v>3.78779</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>3.62844</v>
+        <v>3.67373</v>
       </c>
       <c r="C70" t="n">
-        <v>3.19834</v>
+        <v>3.21029</v>
       </c>
       <c r="D70" t="n">
-        <v>3.95675</v>
+        <v>3.82803</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>3.68598</v>
+        <v>3.72812</v>
       </c>
       <c r="C71" t="n">
-        <v>3.27533</v>
+        <v>3.26968</v>
       </c>
       <c r="D71" t="n">
-        <v>3.86223</v>
+        <v>3.89316</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>3.79514</v>
+        <v>3.76754</v>
       </c>
       <c r="C72" t="n">
-        <v>3.28732</v>
+        <v>3.27614</v>
       </c>
       <c r="D72" t="n">
-        <v>3.88805</v>
+        <v>3.90667</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>3.78855</v>
+        <v>3.73422</v>
       </c>
       <c r="C73" t="n">
-        <v>3.33319</v>
+        <v>3.32081</v>
       </c>
       <c r="D73" t="n">
-        <v>3.97902</v>
+        <v>3.94255</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>3.8157</v>
+        <v>3.74288</v>
       </c>
       <c r="C74" t="n">
-        <v>3.38716</v>
+        <v>3.35379</v>
       </c>
       <c r="D74" t="n">
-        <v>3.96229</v>
+        <v>3.97796</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>3.79308</v>
+        <v>3.75104</v>
       </c>
       <c r="C75" t="n">
-        <v>3.35695</v>
+        <v>3.37691</v>
       </c>
       <c r="D75" t="n">
-        <v>4.04719</v>
+        <v>4.07899</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>3.86586</v>
+        <v>3.83523</v>
       </c>
       <c r="C76" t="n">
-        <v>3.40619</v>
+        <v>3.42401</v>
       </c>
       <c r="D76" t="n">
-        <v>4.04898</v>
+        <v>4.06305</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>3.86119</v>
+        <v>3.9166</v>
       </c>
       <c r="C77" t="n">
-        <v>3.50879</v>
+        <v>3.41707</v>
       </c>
       <c r="D77" t="n">
-        <v>4.12405</v>
+        <v>4.17139</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>3.9705</v>
+        <v>3.83314</v>
       </c>
       <c r="C78" t="n">
-        <v>3.49877</v>
+        <v>3.5709</v>
       </c>
       <c r="D78" t="n">
-        <v>4.20029</v>
+        <v>4.23641</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>4.00058</v>
+        <v>4.00939</v>
       </c>
       <c r="C79" t="n">
-        <v>3.56163</v>
+        <v>3.50419</v>
       </c>
       <c r="D79" t="n">
-        <v>4.2242</v>
+        <v>4.16517</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>3.96685</v>
+        <v>3.99489</v>
       </c>
       <c r="C80" t="n">
-        <v>3.61053</v>
+        <v>3.66727</v>
       </c>
       <c r="D80" t="n">
-        <v>4.22864</v>
+        <v>4.30033</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>4.17769</v>
+        <v>4.0798</v>
       </c>
       <c r="C81" t="n">
-        <v>3.63344</v>
+        <v>3.6103</v>
       </c>
       <c r="D81" t="n">
-        <v>4.35263</v>
+        <v>4.34252</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>4.13905</v>
+        <v>4.12262</v>
       </c>
       <c r="C82" t="n">
-        <v>3.62677</v>
+        <v>3.64995</v>
       </c>
       <c r="D82" t="n">
-        <v>4.46539</v>
+        <v>4.32155</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>4.20293</v>
+        <v>4.15233</v>
       </c>
       <c r="C83" t="n">
-        <v>3.6076</v>
+        <v>3.61254</v>
       </c>
       <c r="D83" t="n">
-        <v>4.36528</v>
+        <v>4.39814</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>4.24395</v>
+        <v>4.20677</v>
       </c>
       <c r="C84" t="n">
-        <v>3.73466</v>
+        <v>3.76192</v>
       </c>
       <c r="D84" t="n">
-        <v>4.39154</v>
+        <v>4.38014</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>4.35523</v>
+        <v>4.30398</v>
       </c>
       <c r="C85" t="n">
-        <v>3.67128</v>
+        <v>3.72742</v>
       </c>
       <c r="D85" t="n">
-        <v>4.45916</v>
+        <v>4.46643</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>4.4146</v>
+        <v>4.40625</v>
       </c>
       <c r="C86" t="n">
-        <v>3.76374</v>
+        <v>3.83412</v>
       </c>
       <c r="D86" t="n">
-        <v>4.63051</v>
+        <v>4.55481</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>4.44992</v>
+        <v>4.46448</v>
       </c>
       <c r="C87" t="n">
-        <v>3.82164</v>
+        <v>3.96207</v>
       </c>
       <c r="D87" t="n">
-        <v>4.65346</v>
+        <v>4.66932</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>4.39255</v>
+        <v>4.51352</v>
       </c>
       <c r="C88" t="n">
-        <v>3.90088</v>
+        <v>4.02039</v>
       </c>
       <c r="D88" t="n">
-        <v>4.60598</v>
+        <v>4.62582</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>4.52487</v>
+        <v>4.47723</v>
       </c>
       <c r="C89" t="n">
-        <v>4.00426</v>
+        <v>4.03635</v>
       </c>
       <c r="D89" t="n">
-        <v>4.80864</v>
+        <v>4.82194</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>4.51074</v>
+        <v>4.47783</v>
       </c>
       <c r="C90" t="n">
-        <v>4.1326</v>
+        <v>4.04496</v>
       </c>
       <c r="D90" t="n">
-        <v>4.73503</v>
+        <v>4.86164</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>4.579</v>
+        <v>4.63577</v>
       </c>
       <c r="C91" t="n">
-        <v>4.14289</v>
+        <v>4.13611</v>
       </c>
       <c r="D91" t="n">
-        <v>4.89046</v>
+        <v>4.84584</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>4.63991</v>
+        <v>4.61343</v>
       </c>
       <c r="C92" t="n">
-        <v>4.18033</v>
+        <v>4.17</v>
       </c>
       <c r="D92" t="n">
-        <v>4.89572</v>
+        <v>5.00003</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>4.8207</v>
+        <v>4.74437</v>
       </c>
       <c r="C93" t="n">
-        <v>4.16342</v>
+        <v>4.28883</v>
       </c>
       <c r="D93" t="n">
-        <v>4.9008</v>
+        <v>4.99816</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>4.75262</v>
+        <v>4.74436</v>
       </c>
       <c r="C94" t="n">
-        <v>4.24635</v>
+        <v>4.36897</v>
       </c>
       <c r="D94" t="n">
-        <v>5.0181</v>
+        <v>5.07944</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>4.69353</v>
+        <v>5.02092</v>
       </c>
       <c r="C95" t="n">
-        <v>4.39576</v>
+        <v>4.41038</v>
       </c>
       <c r="D95" t="n">
-        <v>5.07128</v>
+        <v>5.09498</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>4.97662</v>
+        <v>4.80598</v>
       </c>
       <c r="C96" t="n">
-        <v>4.38864</v>
+        <v>4.41217</v>
       </c>
       <c r="D96" t="n">
-        <v>5.12055</v>
+        <v>5.07904</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>4.92874</v>
+        <v>4.98999</v>
       </c>
       <c r="C97" t="n">
-        <v>4.29636</v>
+        <v>4.32729</v>
       </c>
       <c r="D97" t="n">
-        <v>5.23585</v>
+        <v>5.17668</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>5.11862</v>
+        <v>5.26066</v>
       </c>
       <c r="C98" t="n">
-        <v>4.29279</v>
+        <v>4.57266</v>
       </c>
       <c r="D98" t="n">
-        <v>5.32933</v>
+        <v>5.35415</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>5.30864</v>
+        <v>5.08734</v>
       </c>
       <c r="C99" t="n">
-        <v>4.52001</v>
+        <v>4.49961</v>
       </c>
       <c r="D99" t="n">
-        <v>5.46439</v>
+        <v>5.33534</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>5.26836</v>
+        <v>5.34591</v>
       </c>
       <c r="C100" t="n">
-        <v>4.62521</v>
+        <v>4.72771</v>
       </c>
       <c r="D100" t="n">
-        <v>5.49279</v>
+        <v>5.57231</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>5.39114</v>
+        <v>5.43856</v>
       </c>
       <c r="C101" t="n">
-        <v>4.78911</v>
+        <v>4.69379</v>
       </c>
       <c r="D101" t="n">
-        <v>5.55446</v>
+        <v>5.56807</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>5.43832</v>
+        <v>5.63556</v>
       </c>
       <c r="C102" t="n">
-        <v>4.69692</v>
+        <v>4.82905</v>
       </c>
       <c r="D102" t="n">
-        <v>5.5569</v>
+        <v>5.62006</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>5.37045</v>
+        <v>5.49853</v>
       </c>
       <c r="C103" t="n">
-        <v>4.84236</v>
+        <v>4.97998</v>
       </c>
       <c r="D103" t="n">
-        <v>5.60211</v>
+        <v>5.82625</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>5.60848</v>
+        <v>5.66247</v>
       </c>
       <c r="C104" t="n">
-        <v>4.91924</v>
+        <v>5.16269</v>
       </c>
       <c r="D104" t="n">
-        <v>5.84098</v>
+        <v>6.05626</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>5.61698</v>
+        <v>5.79995</v>
       </c>
       <c r="C105" t="n">
-        <v>5.06291</v>
+        <v>5.1518</v>
       </c>
       <c r="D105" t="n">
-        <v>5.85075</v>
+        <v>6.05224</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>5.73305</v>
+        <v>5.95839</v>
       </c>
       <c r="C106" t="n">
-        <v>5.17732</v>
+        <v>5.27684</v>
       </c>
       <c r="D106" t="n">
-        <v>6.14997</v>
+        <v>6.23262</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>5.80242</v>
+        <v>5.97767</v>
       </c>
       <c r="C107" t="n">
-        <v>5.15443</v>
+        <v>5.46066</v>
       </c>
       <c r="D107" t="n">
-        <v>6.19992</v>
+        <v>6.24309</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>5.93248</v>
+        <v>6.11688</v>
       </c>
       <c r="C108" t="n">
-        <v>5.26115</v>
+        <v>5.41689</v>
       </c>
       <c r="D108" t="n">
-        <v>6.2662</v>
+        <v>6.36075</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>6.03065</v>
+        <v>6.20232</v>
       </c>
       <c r="C109" t="n">
-        <v>5.38973</v>
+        <v>5.44569</v>
       </c>
       <c r="D109" t="n">
-        <v>6.34208</v>
+        <v>6.46266</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>6.25205</v>
+        <v>6.24644</v>
       </c>
       <c r="C110" t="n">
-        <v>5.60739</v>
+        <v>5.73374</v>
       </c>
       <c r="D110" t="n">
-        <v>6.50659</v>
+        <v>6.58871</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>6.42102</v>
+        <v>6.44369</v>
       </c>
       <c r="C111" t="n">
-        <v>5.48281</v>
+        <v>5.47582</v>
       </c>
       <c r="D111" t="n">
-        <v>6.57183</v>
+        <v>6.53729</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>6.45292</v>
+        <v>6.49657</v>
       </c>
       <c r="C112" t="n">
-        <v>5.63356</v>
+        <v>5.64421</v>
       </c>
       <c r="D112" t="n">
-        <v>6.68515</v>
+        <v>6.6097</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>6.64515</v>
+        <v>6.6348</v>
       </c>
       <c r="C113" t="n">
-        <v>5.64283</v>
+        <v>5.72168</v>
       </c>
       <c r="D113" t="n">
-        <v>6.82356</v>
+        <v>6.81107</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>6.82857</v>
+        <v>6.78503</v>
       </c>
       <c r="C114" t="n">
-        <v>5.79221</v>
+        <v>5.86161</v>
       </c>
       <c r="D114" t="n">
-        <v>6.84431</v>
+        <v>6.90881</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>6.9996</v>
+        <v>6.84744</v>
       </c>
       <c r="C115" t="n">
-        <v>6.08613</v>
+        <v>5.96994</v>
       </c>
       <c r="D115" t="n">
-        <v>6.96917</v>
+        <v>6.96937</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>7.0868</v>
+        <v>7.10755</v>
       </c>
       <c r="C116" t="n">
-        <v>5.92413</v>
+        <v>6.02614</v>
       </c>
       <c r="D116" t="n">
-        <v>7.12387</v>
+        <v>7.12051</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>7.24462</v>
+        <v>7.13313</v>
       </c>
       <c r="C117" t="n">
-        <v>6.30176</v>
+        <v>6.17737</v>
       </c>
       <c r="D117" t="n">
-        <v>7.28202</v>
+        <v>7.30749</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>7.20186</v>
+        <v>7.30279</v>
       </c>
       <c r="C118" t="n">
-        <v>6.22712</v>
+        <v>6.38536</v>
       </c>
       <c r="D118" t="n">
-        <v>7.44511</v>
+        <v>7.50973</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>7.33734</v>
+        <v>7.4381</v>
       </c>
       <c r="C119" t="n">
-        <v>6.40714</v>
+        <v>6.52907</v>
       </c>
       <c r="D119" t="n">
-        <v>7.542</v>
+        <v>7.74312</v>
       </c>
     </row>
   </sheetData>
